--- a/outputs/torch/vgg19_bn.xlsx
+++ b/outputs/torch/vgg19_bn.xlsx
@@ -123,7 +123,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -142,13 +142,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="0000FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -514,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z65"/>
+  <dimension ref="A1:AA65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -539,57 +532,58 @@
       <c r="E1" s="12" t="n"/>
       <c r="F1" s="10" t="inlineStr">
         <is>
+          <t>Connection</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="n"/>
+      <c r="H1" s="11" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="10" t="inlineStr">
+        <is>
           <t>Input Dimension</t>
         </is>
       </c>
-      <c r="G1" s="11" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="10" t="inlineStr">
+      <c r="K1" s="11" t="n"/>
+      <c r="L1" s="12" t="n"/>
+      <c r="M1" s="10" t="inlineStr">
         <is>
           <t>Output Dimension</t>
         </is>
       </c>
-      <c r="J1" s="11" t="n"/>
-      <c r="K1" s="12" t="n"/>
-      <c r="L1" s="10" t="inlineStr">
-        <is>
-          <t>Kernel</t>
-        </is>
-      </c>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="10" t="inlineStr">
-        <is>
-          <t>Stride</t>
-        </is>
-      </c>
+      <c r="N1" s="11" t="n"/>
       <c r="O1" s="12" t="n"/>
       <c r="P1" s="10" t="inlineStr">
         <is>
-          <t>Padding</t>
+          <t>Kernel</t>
         </is>
       </c>
       <c r="Q1" s="12" t="n"/>
       <c r="R1" s="10" t="inlineStr">
         <is>
+          <t>Stride</t>
+        </is>
+      </c>
+      <c r="S1" s="12" t="n"/>
+      <c r="T1" s="10" t="inlineStr">
+        <is>
+          <t>Padding</t>
+        </is>
+      </c>
+      <c r="U1" s="12" t="n"/>
+      <c r="V1" s="10" t="inlineStr">
+        <is>
           <t>Size of Parameters</t>
         </is>
       </c>
-      <c r="S1" s="11" t="n"/>
-      <c r="T1" s="12" t="n"/>
-      <c r="U1" s="10" t="inlineStr">
+      <c r="W1" s="11" t="n"/>
+      <c r="X1" s="12" t="n"/>
+      <c r="Y1" s="10" t="inlineStr">
         <is>
           <t>Forward Ops</t>
         </is>
       </c>
-      <c r="V1" s="11" t="n"/>
-      <c r="W1" s="12" t="n"/>
-      <c r="X1" s="10" t="inlineStr">
-        <is>
-          <t>Backward Ops</t>
-        </is>
-      </c>
-      <c r="Y1" s="11" t="n"/>
-      <c r="Z1" s="12" t="n"/>
+      <c r="Z1" s="11" t="n"/>
+      <c r="AA1" s="12" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="10" t="inlineStr"/>
@@ -615,105 +609,110 @@
       </c>
       <c r="F2" s="10" t="inlineStr">
         <is>
+          <t>input0</t>
+        </is>
+      </c>
+      <c r="G2" s="10" t="inlineStr">
+        <is>
+          <t>input1</t>
+        </is>
+      </c>
+      <c r="H2" s="10" t="inlineStr">
+        <is>
+          <t>output0</t>
+        </is>
+      </c>
+      <c r="I2" s="10" t="inlineStr">
+        <is>
+          <t>output1</t>
+        </is>
+      </c>
+      <c r="J2" s="10" t="inlineStr">
+        <is>
           <t>Channel</t>
         </is>
       </c>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="K2" s="10" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="H2" s="10" t="inlineStr">
+      <c r="L2" s="10" t="inlineStr">
         <is>
           <t>Width</t>
         </is>
       </c>
-      <c r="I2" s="10" t="inlineStr">
+      <c r="M2" s="10" t="inlineStr">
         <is>
           <t>Channel</t>
         </is>
       </c>
-      <c r="J2" s="10" t="inlineStr">
+      <c r="N2" s="10" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="K2" s="10" t="inlineStr">
+      <c r="O2" s="10" t="inlineStr">
         <is>
           <t>Width</t>
         </is>
       </c>
-      <c r="L2" s="10" t="inlineStr">
+      <c r="P2" s="10" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="M2" s="10" t="inlineStr">
+      <c r="Q2" s="10" t="inlineStr">
         <is>
           <t>Width</t>
         </is>
       </c>
-      <c r="N2" s="10" t="inlineStr">
+      <c r="R2" s="10" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="O2" s="10" t="inlineStr">
+      <c r="S2" s="10" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="P2" s="10" t="inlineStr">
+      <c r="T2" s="10" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="Q2" s="10" t="inlineStr">
+      <c r="U2" s="10" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="R2" s="10" t="inlineStr">
+      <c r="V2" s="10" t="inlineStr">
         <is>
           <t>Input</t>
         </is>
       </c>
-      <c r="S2" s="10" t="inlineStr">
+      <c r="W2" s="10" t="inlineStr">
         <is>
           <t>Output</t>
         </is>
       </c>
-      <c r="T2" s="10" t="inlineStr">
+      <c r="X2" s="10" t="inlineStr">
         <is>
           <t>Weight</t>
         </is>
       </c>
-      <c r="U2" s="10" t="inlineStr">
+      <c r="Y2" s="10" t="inlineStr">
         <is>
           <t>GEMM</t>
         </is>
       </c>
-      <c r="V2" s="10" t="inlineStr">
+      <c r="Z2" s="10" t="inlineStr">
         <is>
           <t>ElemWise</t>
         </is>
       </c>
-      <c r="W2" s="10" t="inlineStr">
-        <is>
-          <t>Activation</t>
-        </is>
-      </c>
-      <c r="X2" s="10" t="inlineStr">
-        <is>
-          <t>GEMM</t>
-        </is>
-      </c>
-      <c r="Y2" s="10" t="inlineStr">
-        <is>
-          <t>ElemWise</t>
-        </is>
-      </c>
-      <c r="Z2" s="10" t="inlineStr">
+      <c r="AA2" s="10" t="inlineStr">
         <is>
           <t>Activation</t>
         </is>
@@ -731,43 +730,52 @@
       <c r="C3" s="8" t="n"/>
       <c r="D3" s="8" t="n"/>
       <c r="E3" s="8" t="n"/>
-      <c r="F3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-52</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="n"/>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>AdaptiveAvgPool2d: 1-2</t>
+        </is>
+      </c>
+      <c r="I3" s="8" t="n"/>
       <c r="J3" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="8" t="n"/>
-      <c r="M3" s="8" t="n"/>
-      <c r="N3" s="8" t="n"/>
-      <c r="O3" s="8" t="n"/>
+      <c r="L3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="P3" s="8" t="n"/>
       <c r="Q3" s="8" t="n"/>
-      <c r="R3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="R3" s="8" t="n"/>
+      <c r="S3" s="8" t="n"/>
       <c r="T3" s="8" t="n"/>
       <c r="U3" s="8" t="n"/>
-      <c r="V3" s="8" t="n"/>
-      <c r="W3" s="8" t="n"/>
+      <c r="V3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="X3" s="8" t="n"/>
       <c r="Y3" s="8" t="n"/>
       <c r="Z3" s="8" t="n"/>
+      <c r="AA3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
@@ -781,61 +789,64 @@
       </c>
       <c r="D4" s="8" t="n"/>
       <c r="E4" s="8" t="n"/>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="8" t="n"/>
+      <c r="G4" s="8" t="n"/>
+      <c r="H4" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-2</t>
+        </is>
+      </c>
+      <c r="I4" s="8" t="n"/>
+      <c r="J4" s="8" t="n">
         <v>3</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <v>224</v>
-      </c>
-      <c r="H4" s="8" t="n">
-        <v>224</v>
-      </c>
-      <c r="I4" s="8" t="n">
-        <v>64</v>
-      </c>
-      <c r="J4" s="8" t="n">
-        <v>224</v>
       </c>
       <c r="K4" s="8" t="n">
         <v>224</v>
       </c>
       <c r="L4" s="8" t="n">
+        <v>224</v>
+      </c>
+      <c r="M4" s="8" t="n">
+        <v>64</v>
+      </c>
+      <c r="N4" s="8" t="n">
+        <v>224</v>
+      </c>
+      <c r="O4" s="8" t="n">
+        <v>224</v>
+      </c>
+      <c r="P4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="M4" s="8" t="n">
+      <c r="Q4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="N4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="8" t="n">
-        <v>1</v>
-      </c>
       <c r="R4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="8" t="n">
         <v>150528</v>
       </c>
-      <c r="S4" s="8" t="n">
+      <c r="W4" s="8" t="n">
         <v>3211264</v>
       </c>
-      <c r="T4" s="8" t="n">
+      <c r="X4" s="8" t="n">
         <v>1792</v>
       </c>
-      <c r="U4" s="8" t="n">
+      <c r="Y4" s="8" t="n">
         <v>89915392</v>
       </c>
-      <c r="V4" s="8" t="n"/>
-      <c r="W4" s="8" t="n"/>
-      <c r="X4" s="8" t="n">
-        <v>86704128</v>
-      </c>
-      <c r="Y4" s="8" t="n"/>
       <c r="Z4" s="8" t="n"/>
+      <c r="AA4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
@@ -849,49 +860,56 @@
       </c>
       <c r="D5" s="8" t="n"/>
       <c r="E5" s="8" t="n"/>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-1</t>
+        </is>
+      </c>
+      <c r="G5" s="8" t="n"/>
+      <c r="H5" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-3</t>
+        </is>
+      </c>
+      <c r="I5" s="8" t="n"/>
+      <c r="J5" s="8" t="n">
         <v>64</v>
-      </c>
-      <c r="G5" s="8" t="n">
-        <v>224</v>
-      </c>
-      <c r="H5" s="8" t="n">
-        <v>224</v>
-      </c>
-      <c r="I5" s="8" t="n">
-        <v>64</v>
-      </c>
-      <c r="J5" s="8" t="n">
-        <v>224</v>
       </c>
       <c r="K5" s="8" t="n">
         <v>224</v>
       </c>
-      <c r="L5" s="8" t="n"/>
-      <c r="M5" s="8" t="n"/>
-      <c r="N5" s="8" t="n"/>
-      <c r="O5" s="8" t="n"/>
+      <c r="L5" s="8" t="n">
+        <v>224</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v>64</v>
+      </c>
+      <c r="N5" s="8" t="n">
+        <v>224</v>
+      </c>
+      <c r="O5" s="8" t="n">
+        <v>224</v>
+      </c>
       <c r="P5" s="8" t="n"/>
       <c r="Q5" s="8" t="n"/>
-      <c r="R5" s="8" t="n">
-        <v>3211264</v>
-      </c>
-      <c r="S5" s="8" t="n">
-        <v>3211264</v>
-      </c>
-      <c r="T5" s="8" t="n">
-        <v>128</v>
-      </c>
+      <c r="R5" s="8" t="n"/>
+      <c r="S5" s="8" t="n"/>
+      <c r="T5" s="8" t="n"/>
       <c r="U5" s="8" t="n"/>
       <c r="V5" s="8" t="n">
+        <v>3211264</v>
+      </c>
+      <c r="W5" s="8" t="n">
+        <v>3211264</v>
+      </c>
+      <c r="X5" s="8" t="n">
+        <v>128</v>
+      </c>
+      <c r="Y5" s="8" t="n"/>
+      <c r="Z5" s="8" t="n">
         <v>6422528</v>
       </c>
-      <c r="W5" s="8" t="n"/>
-      <c r="X5" s="8" t="n"/>
-      <c r="Y5" s="8" t="n">
-        <v>6422528</v>
-      </c>
-      <c r="Z5" s="8" t="n"/>
+      <c r="AA5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
@@ -900,50 +918,57 @@
       <c r="B6" s="8" t="n"/>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>ReLU: 2-3</t>
+          <t>ReLU(inplace): 2-3</t>
         </is>
       </c>
       <c r="D6" s="8" t="n"/>
       <c r="E6" s="8" t="n"/>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-2</t>
+        </is>
+      </c>
+      <c r="G6" s="8" t="n"/>
+      <c r="H6" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-4</t>
+        </is>
+      </c>
+      <c r="I6" s="8" t="n"/>
+      <c r="J6" s="8" t="n">
         <v>64</v>
-      </c>
-      <c r="G6" s="8" t="n">
-        <v>224</v>
-      </c>
-      <c r="H6" s="8" t="n">
-        <v>224</v>
-      </c>
-      <c r="I6" s="8" t="n">
-        <v>64</v>
-      </c>
-      <c r="J6" s="8" t="n">
-        <v>224</v>
       </c>
       <c r="K6" s="8" t="n">
         <v>224</v>
       </c>
-      <c r="L6" s="8" t="n"/>
-      <c r="M6" s="8" t="n"/>
-      <c r="N6" s="8" t="n"/>
-      <c r="O6" s="8" t="n"/>
+      <c r="L6" s="8" t="n">
+        <v>224</v>
+      </c>
+      <c r="M6" s="8" t="n">
+        <v>64</v>
+      </c>
+      <c r="N6" s="8" t="n">
+        <v>224</v>
+      </c>
+      <c r="O6" s="8" t="n">
+        <v>224</v>
+      </c>
       <c r="P6" s="8" t="n"/>
       <c r="Q6" s="8" t="n"/>
-      <c r="R6" s="8" t="n">
-        <v>3211264</v>
-      </c>
-      <c r="S6" s="8" t="n">
-        <v>3211264</v>
-      </c>
+      <c r="R6" s="8" t="n"/>
+      <c r="S6" s="8" t="n"/>
       <c r="T6" s="8" t="n"/>
       <c r="U6" s="8" t="n"/>
-      <c r="V6" s="8" t="n"/>
+      <c r="V6" s="8" t="n">
+        <v>3211264</v>
+      </c>
       <c r="W6" s="8" t="n">
         <v>3211264</v>
       </c>
       <c r="X6" s="8" t="n"/>
       <c r="Y6" s="8" t="n"/>
-      <c r="Z6" s="8" t="n">
+      <c r="Z6" s="8" t="n"/>
+      <c r="AA6" s="8" t="n">
         <v>3211264</v>
       </c>
     </row>
@@ -959,61 +984,68 @@
       </c>
       <c r="D7" s="8" t="n"/>
       <c r="E7" s="8" t="n"/>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-3</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
+      <c r="H7" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-5</t>
+        </is>
+      </c>
+      <c r="I7" s="8" t="n"/>
+      <c r="J7" s="8" t="n">
         <v>64</v>
-      </c>
-      <c r="G7" s="8" t="n">
-        <v>224</v>
-      </c>
-      <c r="H7" s="8" t="n">
-        <v>224</v>
-      </c>
-      <c r="I7" s="8" t="n">
-        <v>64</v>
-      </c>
-      <c r="J7" s="8" t="n">
-        <v>224</v>
       </c>
       <c r="K7" s="8" t="n">
         <v>224</v>
       </c>
       <c r="L7" s="8" t="n">
+        <v>224</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v>64</v>
+      </c>
+      <c r="N7" s="8" t="n">
+        <v>224</v>
+      </c>
+      <c r="O7" s="8" t="n">
+        <v>224</v>
+      </c>
+      <c r="P7" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="M7" s="8" t="n">
+      <c r="Q7" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="N7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="8" t="n">
-        <v>1</v>
-      </c>
       <c r="R7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="8" t="n">
         <v>3211264</v>
       </c>
-      <c r="S7" s="8" t="n">
+      <c r="W7" s="8" t="n">
         <v>3211264</v>
       </c>
-      <c r="T7" s="8" t="n">
+      <c r="X7" s="8" t="n">
         <v>36928</v>
       </c>
-      <c r="U7" s="8" t="n">
+      <c r="Y7" s="8" t="n">
         <v>1852899328</v>
       </c>
-      <c r="V7" s="8" t="n"/>
-      <c r="W7" s="8" t="n"/>
-      <c r="X7" s="8" t="n">
-        <v>1849688064</v>
-      </c>
-      <c r="Y7" s="8" t="n"/>
       <c r="Z7" s="8" t="n"/>
+      <c r="AA7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
@@ -1027,49 +1059,56 @@
       </c>
       <c r="D8" s="8" t="n"/>
       <c r="E8" s="8" t="n"/>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-4</t>
+        </is>
+      </c>
+      <c r="G8" s="8" t="n"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-6</t>
+        </is>
+      </c>
+      <c r="I8" s="8" t="n"/>
+      <c r="J8" s="8" t="n">
         <v>64</v>
-      </c>
-      <c r="G8" s="8" t="n">
-        <v>224</v>
-      </c>
-      <c r="H8" s="8" t="n">
-        <v>224</v>
-      </c>
-      <c r="I8" s="8" t="n">
-        <v>64</v>
-      </c>
-      <c r="J8" s="8" t="n">
-        <v>224</v>
       </c>
       <c r="K8" s="8" t="n">
         <v>224</v>
       </c>
-      <c r="L8" s="8" t="n"/>
-      <c r="M8" s="8" t="n"/>
-      <c r="N8" s="8" t="n"/>
-      <c r="O8" s="8" t="n"/>
+      <c r="L8" s="8" t="n">
+        <v>224</v>
+      </c>
+      <c r="M8" s="8" t="n">
+        <v>64</v>
+      </c>
+      <c r="N8" s="8" t="n">
+        <v>224</v>
+      </c>
+      <c r="O8" s="8" t="n">
+        <v>224</v>
+      </c>
       <c r="P8" s="8" t="n"/>
       <c r="Q8" s="8" t="n"/>
-      <c r="R8" s="8" t="n">
-        <v>3211264</v>
-      </c>
-      <c r="S8" s="8" t="n">
-        <v>3211264</v>
-      </c>
-      <c r="T8" s="8" t="n">
-        <v>128</v>
-      </c>
+      <c r="R8" s="8" t="n"/>
+      <c r="S8" s="8" t="n"/>
+      <c r="T8" s="8" t="n"/>
       <c r="U8" s="8" t="n"/>
       <c r="V8" s="8" t="n">
+        <v>3211264</v>
+      </c>
+      <c r="W8" s="8" t="n">
+        <v>3211264</v>
+      </c>
+      <c r="X8" s="8" t="n">
+        <v>128</v>
+      </c>
+      <c r="Y8" s="8" t="n"/>
+      <c r="Z8" s="8" t="n">
         <v>6422528</v>
       </c>
-      <c r="W8" s="8" t="n"/>
-      <c r="X8" s="8" t="n"/>
-      <c r="Y8" s="8" t="n">
-        <v>6422528</v>
-      </c>
-      <c r="Z8" s="8" t="n"/>
+      <c r="AA8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
@@ -1078,50 +1117,57 @@
       <c r="B9" s="8" t="n"/>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>ReLU: 2-6</t>
+          <t>ReLU(inplace): 2-6</t>
         </is>
       </c>
       <c r="D9" s="8" t="n"/>
       <c r="E9" s="8" t="n"/>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-5</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="n"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MaxPool2d: 2-7</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="n"/>
+      <c r="J9" s="8" t="n">
         <v>64</v>
-      </c>
-      <c r="G9" s="8" t="n">
-        <v>224</v>
-      </c>
-      <c r="H9" s="8" t="n">
-        <v>224</v>
-      </c>
-      <c r="I9" s="8" t="n">
-        <v>64</v>
-      </c>
-      <c r="J9" s="8" t="n">
-        <v>224</v>
       </c>
       <c r="K9" s="8" t="n">
         <v>224</v>
       </c>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
+      <c r="L9" s="8" t="n">
+        <v>224</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>64</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>224</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>224</v>
+      </c>
       <c r="P9" s="8" t="n"/>
       <c r="Q9" s="8" t="n"/>
-      <c r="R9" s="8" t="n">
-        <v>3211264</v>
-      </c>
-      <c r="S9" s="8" t="n">
-        <v>3211264</v>
-      </c>
+      <c r="R9" s="8" t="n"/>
+      <c r="S9" s="8" t="n"/>
       <c r="T9" s="8" t="n"/>
       <c r="U9" s="8" t="n"/>
-      <c r="V9" s="8" t="n"/>
+      <c r="V9" s="8" t="n">
+        <v>3211264</v>
+      </c>
       <c r="W9" s="8" t="n">
         <v>3211264</v>
       </c>
       <c r="X9" s="8" t="n"/>
       <c r="Y9" s="8" t="n"/>
-      <c r="Z9" s="8" t="n">
+      <c r="Z9" s="8" t="n"/>
+      <c r="AA9" s="8" t="n">
         <v>3211264</v>
       </c>
     </row>
@@ -1137,55 +1183,62 @@
       </c>
       <c r="D10" s="8" t="n"/>
       <c r="E10" s="8" t="n"/>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-6</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="n"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-8</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="n"/>
+      <c r="J10" s="8" t="n">
         <v>64</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="K10" s="8" t="n">
         <v>224</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="L10" s="8" t="n">
         <v>224</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="M10" s="8" t="n">
         <v>64</v>
       </c>
-      <c r="J10" s="8" t="n">
+      <c r="N10" s="8" t="n">
         <v>112</v>
       </c>
-      <c r="K10" s="8" t="n">
+      <c r="O10" s="8" t="n">
         <v>112</v>
       </c>
-      <c r="L10" s="8" t="n">
+      <c r="P10" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="M10" s="8" t="n">
+      <c r="Q10" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N10" s="8" t="n">
+      <c r="R10" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="O10" s="8" t="n"/>
-      <c r="P10" s="8" t="n">
+      <c r="S10" s="8" t="n"/>
+      <c r="T10" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" s="8" t="n"/>
-      <c r="R10" s="8" t="n">
-        <v>3211264</v>
-      </c>
-      <c r="S10" s="8" t="n">
-        <v>802816</v>
-      </c>
-      <c r="T10" s="8" t="n"/>
       <c r="U10" s="8" t="n"/>
       <c r="V10" s="8" t="n">
+        <v>3211264</v>
+      </c>
+      <c r="W10" s="8" t="n">
+        <v>802816</v>
+      </c>
+      <c r="X10" s="8" t="n"/>
+      <c r="Y10" s="8" t="n"/>
+      <c r="Z10" s="8" t="n">
         <v>2408448</v>
       </c>
-      <c r="W10" s="8" t="n"/>
-      <c r="X10" s="8" t="n"/>
-      <c r="Y10" s="8" t="n">
-        <v>40282095616</v>
-      </c>
-      <c r="Z10" s="8" t="n"/>
+      <c r="AA10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
@@ -1199,61 +1252,68 @@
       </c>
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>MaxPool2d: 2-7</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="n"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-9</t>
+        </is>
+      </c>
+      <c r="I11" s="8" t="n"/>
+      <c r="J11" s="8" t="n">
         <v>64</v>
-      </c>
-      <c r="G11" s="8" t="n">
-        <v>112</v>
-      </c>
-      <c r="H11" s="8" t="n">
-        <v>112</v>
-      </c>
-      <c r="I11" s="8" t="n">
-        <v>128</v>
-      </c>
-      <c r="J11" s="8" t="n">
-        <v>112</v>
       </c>
       <c r="K11" s="8" t="n">
         <v>112</v>
       </c>
       <c r="L11" s="8" t="n">
+        <v>112</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>128</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>112</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>112</v>
+      </c>
+      <c r="P11" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="M11" s="8" t="n">
+      <c r="Q11" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="N11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="8" t="n">
-        <v>1</v>
-      </c>
       <c r="R11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="8" t="n">
         <v>802816</v>
       </c>
-      <c r="S11" s="8" t="n">
+      <c r="W11" s="8" t="n">
         <v>1605632</v>
       </c>
-      <c r="T11" s="8" t="n">
+      <c r="X11" s="8" t="n">
         <v>73856</v>
       </c>
-      <c r="U11" s="8" t="n">
+      <c r="Y11" s="8" t="n">
         <v>926449664</v>
       </c>
-      <c r="V11" s="8" t="n"/>
-      <c r="W11" s="8" t="n"/>
-      <c r="X11" s="8" t="n">
-        <v>924844032</v>
-      </c>
-      <c r="Y11" s="8" t="n"/>
       <c r="Z11" s="8" t="n"/>
+      <c r="AA11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
@@ -1267,49 +1327,56 @@
       </c>
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-8</t>
+        </is>
+      </c>
+      <c r="G12" s="8" t="n"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-10</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="n"/>
+      <c r="J12" s="8" t="n">
         <v>128</v>
-      </c>
-      <c r="G12" s="8" t="n">
-        <v>112</v>
-      </c>
-      <c r="H12" s="8" t="n">
-        <v>112</v>
-      </c>
-      <c r="I12" s="8" t="n">
-        <v>128</v>
-      </c>
-      <c r="J12" s="8" t="n">
-        <v>112</v>
       </c>
       <c r="K12" s="8" t="n">
         <v>112</v>
       </c>
-      <c r="L12" s="8" t="n"/>
-      <c r="M12" s="8" t="n"/>
-      <c r="N12" s="8" t="n"/>
-      <c r="O12" s="8" t="n"/>
+      <c r="L12" s="8" t="n">
+        <v>112</v>
+      </c>
+      <c r="M12" s="8" t="n">
+        <v>128</v>
+      </c>
+      <c r="N12" s="8" t="n">
+        <v>112</v>
+      </c>
+      <c r="O12" s="8" t="n">
+        <v>112</v>
+      </c>
       <c r="P12" s="8" t="n"/>
       <c r="Q12" s="8" t="n"/>
-      <c r="R12" s="8" t="n">
-        <v>1605632</v>
-      </c>
-      <c r="S12" s="8" t="n">
-        <v>1605632</v>
-      </c>
-      <c r="T12" s="8" t="n">
-        <v>256</v>
-      </c>
+      <c r="R12" s="8" t="n"/>
+      <c r="S12" s="8" t="n"/>
+      <c r="T12" s="8" t="n"/>
       <c r="U12" s="8" t="n"/>
       <c r="V12" s="8" t="n">
+        <v>1605632</v>
+      </c>
+      <c r="W12" s="8" t="n">
+        <v>1605632</v>
+      </c>
+      <c r="X12" s="8" t="n">
+        <v>256</v>
+      </c>
+      <c r="Y12" s="8" t="n"/>
+      <c r="Z12" s="8" t="n">
         <v>3211264</v>
       </c>
-      <c r="W12" s="8" t="n"/>
-      <c r="X12" s="8" t="n"/>
-      <c r="Y12" s="8" t="n">
-        <v>3211264</v>
-      </c>
-      <c r="Z12" s="8" t="n"/>
+      <c r="AA12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
@@ -1318,50 +1385,57 @@
       <c r="B13" s="8" t="n"/>
       <c r="C13" s="8" t="inlineStr">
         <is>
-          <t>ReLU: 2-10</t>
+          <t>ReLU(inplace): 2-10</t>
         </is>
       </c>
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-9</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="n"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-11</t>
+        </is>
+      </c>
+      <c r="I13" s="8" t="n"/>
+      <c r="J13" s="8" t="n">
         <v>128</v>
-      </c>
-      <c r="G13" s="8" t="n">
-        <v>112</v>
-      </c>
-      <c r="H13" s="8" t="n">
-        <v>112</v>
-      </c>
-      <c r="I13" s="8" t="n">
-        <v>128</v>
-      </c>
-      <c r="J13" s="8" t="n">
-        <v>112</v>
       </c>
       <c r="K13" s="8" t="n">
         <v>112</v>
       </c>
-      <c r="L13" s="8" t="n"/>
-      <c r="M13" s="8" t="n"/>
-      <c r="N13" s="8" t="n"/>
-      <c r="O13" s="8" t="n"/>
+      <c r="L13" s="8" t="n">
+        <v>112</v>
+      </c>
+      <c r="M13" s="8" t="n">
+        <v>128</v>
+      </c>
+      <c r="N13" s="8" t="n">
+        <v>112</v>
+      </c>
+      <c r="O13" s="8" t="n">
+        <v>112</v>
+      </c>
       <c r="P13" s="8" t="n"/>
       <c r="Q13" s="8" t="n"/>
-      <c r="R13" s="8" t="n">
-        <v>1605632</v>
-      </c>
-      <c r="S13" s="8" t="n">
-        <v>1605632</v>
-      </c>
+      <c r="R13" s="8" t="n"/>
+      <c r="S13" s="8" t="n"/>
       <c r="T13" s="8" t="n"/>
       <c r="U13" s="8" t="n"/>
-      <c r="V13" s="8" t="n"/>
+      <c r="V13" s="8" t="n">
+        <v>1605632</v>
+      </c>
       <c r="W13" s="8" t="n">
         <v>1605632</v>
       </c>
       <c r="X13" s="8" t="n"/>
       <c r="Y13" s="8" t="n"/>
-      <c r="Z13" s="8" t="n">
+      <c r="Z13" s="8" t="n"/>
+      <c r="AA13" s="8" t="n">
         <v>1605632</v>
       </c>
     </row>
@@ -1377,61 +1451,68 @@
       </c>
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-10</t>
+        </is>
+      </c>
+      <c r="G14" s="8" t="n"/>
+      <c r="H14" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-12</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="n"/>
+      <c r="J14" s="8" t="n">
         <v>128</v>
-      </c>
-      <c r="G14" s="8" t="n">
-        <v>112</v>
-      </c>
-      <c r="H14" s="8" t="n">
-        <v>112</v>
-      </c>
-      <c r="I14" s="8" t="n">
-        <v>128</v>
-      </c>
-      <c r="J14" s="8" t="n">
-        <v>112</v>
       </c>
       <c r="K14" s="8" t="n">
         <v>112</v>
       </c>
       <c r="L14" s="8" t="n">
+        <v>112</v>
+      </c>
+      <c r="M14" s="8" t="n">
+        <v>128</v>
+      </c>
+      <c r="N14" s="8" t="n">
+        <v>112</v>
+      </c>
+      <c r="O14" s="8" t="n">
+        <v>112</v>
+      </c>
+      <c r="P14" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="M14" s="8" t="n">
+      <c r="Q14" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="N14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="8" t="n">
-        <v>1</v>
-      </c>
       <c r="R14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" s="8" t="n">
         <v>1605632</v>
       </c>
-      <c r="S14" s="8" t="n">
+      <c r="W14" s="8" t="n">
         <v>1605632</v>
       </c>
-      <c r="T14" s="8" t="n">
+      <c r="X14" s="8" t="n">
         <v>147584</v>
       </c>
-      <c r="U14" s="8" t="n">
+      <c r="Y14" s="8" t="n">
         <v>1851293696</v>
       </c>
-      <c r="V14" s="8" t="n"/>
-      <c r="W14" s="8" t="n"/>
-      <c r="X14" s="8" t="n">
-        <v>1849688064</v>
-      </c>
-      <c r="Y14" s="8" t="n"/>
       <c r="Z14" s="8" t="n"/>
+      <c r="AA14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
@@ -1445,49 +1526,56 @@
       </c>
       <c r="D15" s="8" t="n"/>
       <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-11</t>
+        </is>
+      </c>
+      <c r="G15" s="8" t="n"/>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-13</t>
+        </is>
+      </c>
+      <c r="I15" s="8" t="n"/>
+      <c r="J15" s="8" t="n">
         <v>128</v>
-      </c>
-      <c r="G15" s="8" t="n">
-        <v>112</v>
-      </c>
-      <c r="H15" s="8" t="n">
-        <v>112</v>
-      </c>
-      <c r="I15" s="8" t="n">
-        <v>128</v>
-      </c>
-      <c r="J15" s="8" t="n">
-        <v>112</v>
       </c>
       <c r="K15" s="8" t="n">
         <v>112</v>
       </c>
-      <c r="L15" s="8" t="n"/>
-      <c r="M15" s="8" t="n"/>
-      <c r="N15" s="8" t="n"/>
-      <c r="O15" s="8" t="n"/>
+      <c r="L15" s="8" t="n">
+        <v>112</v>
+      </c>
+      <c r="M15" s="8" t="n">
+        <v>128</v>
+      </c>
+      <c r="N15" s="8" t="n">
+        <v>112</v>
+      </c>
+      <c r="O15" s="8" t="n">
+        <v>112</v>
+      </c>
       <c r="P15" s="8" t="n"/>
       <c r="Q15" s="8" t="n"/>
-      <c r="R15" s="8" t="n">
-        <v>1605632</v>
-      </c>
-      <c r="S15" s="8" t="n">
-        <v>1605632</v>
-      </c>
-      <c r="T15" s="8" t="n">
-        <v>256</v>
-      </c>
+      <c r="R15" s="8" t="n"/>
+      <c r="S15" s="8" t="n"/>
+      <c r="T15" s="8" t="n"/>
       <c r="U15" s="8" t="n"/>
       <c r="V15" s="8" t="n">
+        <v>1605632</v>
+      </c>
+      <c r="W15" s="8" t="n">
+        <v>1605632</v>
+      </c>
+      <c r="X15" s="8" t="n">
+        <v>256</v>
+      </c>
+      <c r="Y15" s="8" t="n"/>
+      <c r="Z15" s="8" t="n">
         <v>3211264</v>
       </c>
-      <c r="W15" s="8" t="n"/>
-      <c r="X15" s="8" t="n"/>
-      <c r="Y15" s="8" t="n">
-        <v>3211264</v>
-      </c>
-      <c r="Z15" s="8" t="n"/>
+      <c r="AA15" s="8" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
@@ -1496,50 +1584,57 @@
       <c r="B16" s="8" t="n"/>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>ReLU: 2-13</t>
+          <t>ReLU(inplace): 2-13</t>
         </is>
       </c>
       <c r="D16" s="8" t="n"/>
       <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-12</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="n"/>
+      <c r="H16" s="8" t="inlineStr">
+        <is>
+          <t>MaxPool2d: 2-14</t>
+        </is>
+      </c>
+      <c r="I16" s="8" t="n"/>
+      <c r="J16" s="8" t="n">
         <v>128</v>
-      </c>
-      <c r="G16" s="8" t="n">
-        <v>112</v>
-      </c>
-      <c r="H16" s="8" t="n">
-        <v>112</v>
-      </c>
-      <c r="I16" s="8" t="n">
-        <v>128</v>
-      </c>
-      <c r="J16" s="8" t="n">
-        <v>112</v>
       </c>
       <c r="K16" s="8" t="n">
         <v>112</v>
       </c>
-      <c r="L16" s="8" t="n"/>
-      <c r="M16" s="8" t="n"/>
-      <c r="N16" s="8" t="n"/>
-      <c r="O16" s="8" t="n"/>
+      <c r="L16" s="8" t="n">
+        <v>112</v>
+      </c>
+      <c r="M16" s="8" t="n">
+        <v>128</v>
+      </c>
+      <c r="N16" s="8" t="n">
+        <v>112</v>
+      </c>
+      <c r="O16" s="8" t="n">
+        <v>112</v>
+      </c>
       <c r="P16" s="8" t="n"/>
       <c r="Q16" s="8" t="n"/>
-      <c r="R16" s="8" t="n">
-        <v>1605632</v>
-      </c>
-      <c r="S16" s="8" t="n">
-        <v>1605632</v>
-      </c>
+      <c r="R16" s="8" t="n"/>
+      <c r="S16" s="8" t="n"/>
       <c r="T16" s="8" t="n"/>
       <c r="U16" s="8" t="n"/>
-      <c r="V16" s="8" t="n"/>
+      <c r="V16" s="8" t="n">
+        <v>1605632</v>
+      </c>
       <c r="W16" s="8" t="n">
         <v>1605632</v>
       </c>
       <c r="X16" s="8" t="n"/>
       <c r="Y16" s="8" t="n"/>
-      <c r="Z16" s="8" t="n">
+      <c r="Z16" s="8" t="n"/>
+      <c r="AA16" s="8" t="n">
         <v>1605632</v>
       </c>
     </row>
@@ -1555,55 +1650,62 @@
       </c>
       <c r="D17" s="8" t="n"/>
       <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-13</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="n"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-15</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="n"/>
+      <c r="J17" s="8" t="n">
         <v>128</v>
       </c>
-      <c r="G17" s="8" t="n">
+      <c r="K17" s="8" t="n">
         <v>112</v>
       </c>
-      <c r="H17" s="8" t="n">
+      <c r="L17" s="8" t="n">
         <v>112</v>
       </c>
-      <c r="I17" s="8" t="n">
+      <c r="M17" s="8" t="n">
         <v>128</v>
       </c>
-      <c r="J17" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="K17" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="L17" s="8" t="n">
+      <c r="N17" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="O17" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="P17" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="M17" s="8" t="n">
+      <c r="Q17" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N17" s="8" t="n">
+      <c r="R17" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="O17" s="8" t="n"/>
-      <c r="P17" s="8" t="n">
+      <c r="S17" s="8" t="n"/>
+      <c r="T17" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" s="8" t="n"/>
-      <c r="R17" s="8" t="n">
-        <v>1605632</v>
-      </c>
-      <c r="S17" s="8" t="n">
-        <v>401408</v>
-      </c>
-      <c r="T17" s="8" t="n"/>
       <c r="U17" s="8" t="n"/>
       <c r="V17" s="8" t="n">
+        <v>1605632</v>
+      </c>
+      <c r="W17" s="8" t="n">
+        <v>401408</v>
+      </c>
+      <c r="X17" s="8" t="n"/>
+      <c r="Y17" s="8" t="n"/>
+      <c r="Z17" s="8" t="n">
         <v>1204224</v>
       </c>
-      <c r="W17" s="8" t="n"/>
-      <c r="X17" s="8" t="n"/>
-      <c r="Y17" s="8" t="n">
-        <v>5035261952</v>
-      </c>
-      <c r="Z17" s="8" t="n"/>
+      <c r="AA17" s="8" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
@@ -1617,61 +1719,68 @@
       </c>
       <c r="D18" s="8" t="n"/>
       <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>MaxPool2d: 2-14</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="n"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-16</t>
+        </is>
+      </c>
+      <c r="I18" s="8" t="n"/>
+      <c r="J18" s="8" t="n">
         <v>128</v>
       </c>
-      <c r="G18" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="H18" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="I18" s="8" t="n">
+      <c r="K18" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="L18" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="M18" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="J18" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="K18" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="L18" s="8" t="n">
+      <c r="N18" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="O18" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="P18" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="M18" s="8" t="n">
+      <c r="Q18" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="N18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="8" t="n">
-        <v>1</v>
-      </c>
       <c r="R18" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" s="8" t="n">
         <v>401408</v>
       </c>
-      <c r="S18" s="8" t="n">
+      <c r="W18" s="8" t="n">
         <v>802816</v>
       </c>
-      <c r="T18" s="8" t="n">
+      <c r="X18" s="8" t="n">
         <v>295168</v>
       </c>
-      <c r="U18" s="8" t="n">
+      <c r="Y18" s="8" t="n">
         <v>925646848</v>
       </c>
-      <c r="V18" s="8" t="n"/>
-      <c r="W18" s="8" t="n"/>
-      <c r="X18" s="8" t="n">
-        <v>924844032</v>
-      </c>
-      <c r="Y18" s="8" t="n"/>
       <c r="Z18" s="8" t="n"/>
+      <c r="AA18" s="8" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
@@ -1685,49 +1794,56 @@
       </c>
       <c r="D19" s="8" t="n"/>
       <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-15</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="n"/>
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-17</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="n"/>
+      <c r="J19" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="G19" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="H19" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="I19" s="8" t="n">
+      <c r="K19" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="L19" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="M19" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="J19" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="K19" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="L19" s="8" t="n"/>
-      <c r="M19" s="8" t="n"/>
-      <c r="N19" s="8" t="n"/>
-      <c r="O19" s="8" t="n"/>
+      <c r="N19" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="O19" s="8" t="n">
+        <v>56</v>
+      </c>
       <c r="P19" s="8" t="n"/>
       <c r="Q19" s="8" t="n"/>
-      <c r="R19" s="8" t="n">
-        <v>802816</v>
-      </c>
-      <c r="S19" s="8" t="n">
-        <v>802816</v>
-      </c>
-      <c r="T19" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="R19" s="8" t="n"/>
+      <c r="S19" s="8" t="n"/>
+      <c r="T19" s="8" t="n"/>
       <c r="U19" s="8" t="n"/>
       <c r="V19" s="8" t="n">
+        <v>802816</v>
+      </c>
+      <c r="W19" s="8" t="n">
+        <v>802816</v>
+      </c>
+      <c r="X19" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y19" s="8" t="n"/>
+      <c r="Z19" s="8" t="n">
         <v>1605632</v>
       </c>
-      <c r="W19" s="8" t="n"/>
-      <c r="X19" s="8" t="n"/>
-      <c r="Y19" s="8" t="n">
-        <v>1605632</v>
-      </c>
-      <c r="Z19" s="8" t="n"/>
+      <c r="AA19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
@@ -1736,50 +1852,57 @@
       <c r="B20" s="8" t="n"/>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>ReLU: 2-17</t>
+          <t>ReLU(inplace): 2-17</t>
         </is>
       </c>
       <c r="D20" s="8" t="n"/>
       <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-16</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="n"/>
+      <c r="H20" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-18</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="n"/>
+      <c r="J20" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="G20" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="H20" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="I20" s="8" t="n">
+      <c r="K20" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="M20" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="J20" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="K20" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
+      <c r="N20" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>56</v>
+      </c>
       <c r="P20" s="8" t="n"/>
       <c r="Q20" s="8" t="n"/>
-      <c r="R20" s="8" t="n">
-        <v>802816</v>
-      </c>
-      <c r="S20" s="8" t="n">
-        <v>802816</v>
-      </c>
+      <c r="R20" s="8" t="n"/>
+      <c r="S20" s="8" t="n"/>
       <c r="T20" s="8" t="n"/>
       <c r="U20" s="8" t="n"/>
-      <c r="V20" s="8" t="n"/>
+      <c r="V20" s="8" t="n">
+        <v>802816</v>
+      </c>
       <c r="W20" s="8" t="n">
         <v>802816</v>
       </c>
       <c r="X20" s="8" t="n"/>
       <c r="Y20" s="8" t="n"/>
-      <c r="Z20" s="8" t="n">
+      <c r="Z20" s="8" t="n"/>
+      <c r="AA20" s="8" t="n">
         <v>802816</v>
       </c>
     </row>
@@ -1795,61 +1918,68 @@
       </c>
       <c r="D21" s="8" t="n"/>
       <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-17</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="n"/>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-19</t>
+        </is>
+      </c>
+      <c r="I21" s="8" t="n"/>
+      <c r="J21" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="G21" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="H21" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="I21" s="8" t="n">
+      <c r="K21" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="L21" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="M21" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="J21" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="K21" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="L21" s="8" t="n">
+      <c r="N21" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="O21" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="P21" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="M21" s="8" t="n">
+      <c r="Q21" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="N21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="8" t="n">
-        <v>1</v>
-      </c>
       <c r="R21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" s="8" t="n">
         <v>802816</v>
       </c>
-      <c r="S21" s="8" t="n">
+      <c r="W21" s="8" t="n">
         <v>802816</v>
       </c>
-      <c r="T21" s="8" t="n">
+      <c r="X21" s="8" t="n">
         <v>590080</v>
       </c>
-      <c r="U21" s="8" t="n">
+      <c r="Y21" s="8" t="n">
         <v>1850490880</v>
       </c>
-      <c r="V21" s="8" t="n"/>
-      <c r="W21" s="8" t="n"/>
-      <c r="X21" s="8" t="n">
-        <v>1849688064</v>
-      </c>
-      <c r="Y21" s="8" t="n"/>
       <c r="Z21" s="8" t="n"/>
+      <c r="AA21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n">
@@ -1863,49 +1993,56 @@
       </c>
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
-      <c r="F22" s="8" t="n">
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-18</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="n"/>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-20</t>
+        </is>
+      </c>
+      <c r="I22" s="8" t="n"/>
+      <c r="J22" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="G22" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="H22" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="I22" s="8" t="n">
+      <c r="K22" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="M22" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="J22" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="K22" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
+      <c r="N22" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>56</v>
+      </c>
       <c r="P22" s="8" t="n"/>
       <c r="Q22" s="8" t="n"/>
-      <c r="R22" s="8" t="n">
-        <v>802816</v>
-      </c>
-      <c r="S22" s="8" t="n">
-        <v>802816</v>
-      </c>
-      <c r="T22" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="R22" s="8" t="n"/>
+      <c r="S22" s="8" t="n"/>
+      <c r="T22" s="8" t="n"/>
       <c r="U22" s="8" t="n"/>
       <c r="V22" s="8" t="n">
+        <v>802816</v>
+      </c>
+      <c r="W22" s="8" t="n">
+        <v>802816</v>
+      </c>
+      <c r="X22" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y22" s="8" t="n"/>
+      <c r="Z22" s="8" t="n">
         <v>1605632</v>
       </c>
-      <c r="W22" s="8" t="n"/>
-      <c r="X22" s="8" t="n"/>
-      <c r="Y22" s="8" t="n">
-        <v>1605632</v>
-      </c>
-      <c r="Z22" s="8" t="n"/>
+      <c r="AA22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="n">
@@ -1914,50 +2051,57 @@
       <c r="B23" s="8" t="n"/>
       <c r="C23" s="8" t="inlineStr">
         <is>
-          <t>ReLU: 2-20</t>
+          <t>ReLU(inplace): 2-20</t>
         </is>
       </c>
       <c r="D23" s="8" t="n"/>
       <c r="E23" s="8" t="n"/>
-      <c r="F23" s="8" t="n">
+      <c r="F23" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-19</t>
+        </is>
+      </c>
+      <c r="G23" s="8" t="n"/>
+      <c r="H23" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-21</t>
+        </is>
+      </c>
+      <c r="I23" s="8" t="n"/>
+      <c r="J23" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="G23" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="H23" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="I23" s="8" t="n">
+      <c r="K23" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="M23" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="J23" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="K23" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
+      <c r="N23" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>56</v>
+      </c>
       <c r="P23" s="8" t="n"/>
       <c r="Q23" s="8" t="n"/>
-      <c r="R23" s="8" t="n">
-        <v>802816</v>
-      </c>
-      <c r="S23" s="8" t="n">
-        <v>802816</v>
-      </c>
+      <c r="R23" s="8" t="n"/>
+      <c r="S23" s="8" t="n"/>
       <c r="T23" s="8" t="n"/>
       <c r="U23" s="8" t="n"/>
-      <c r="V23" s="8" t="n"/>
+      <c r="V23" s="8" t="n">
+        <v>802816</v>
+      </c>
       <c r="W23" s="8" t="n">
         <v>802816</v>
       </c>
       <c r="X23" s="8" t="n"/>
       <c r="Y23" s="8" t="n"/>
-      <c r="Z23" s="8" t="n">
+      <c r="Z23" s="8" t="n"/>
+      <c r="AA23" s="8" t="n">
         <v>802816</v>
       </c>
     </row>
@@ -1973,61 +2117,68 @@
       </c>
       <c r="D24" s="8" t="n"/>
       <c r="E24" s="8" t="n"/>
-      <c r="F24" s="8" t="n">
+      <c r="F24" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-20</t>
+        </is>
+      </c>
+      <c r="G24" s="8" t="n"/>
+      <c r="H24" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-22</t>
+        </is>
+      </c>
+      <c r="I24" s="8" t="n"/>
+      <c r="J24" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="G24" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="H24" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="I24" s="8" t="n">
+      <c r="K24" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="M24" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="J24" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="K24" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="L24" s="8" t="n">
+      <c r="N24" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="P24" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="M24" s="8" t="n">
+      <c r="Q24" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="N24" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="8" t="n">
-        <v>1</v>
-      </c>
       <c r="R24" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" s="8" t="n">
         <v>802816</v>
       </c>
-      <c r="S24" s="8" t="n">
+      <c r="W24" s="8" t="n">
         <v>802816</v>
       </c>
-      <c r="T24" s="8" t="n">
+      <c r="X24" s="8" t="n">
         <v>590080</v>
       </c>
-      <c r="U24" s="8" t="n">
+      <c r="Y24" s="8" t="n">
         <v>1850490880</v>
       </c>
-      <c r="V24" s="8" t="n"/>
-      <c r="W24" s="8" t="n"/>
-      <c r="X24" s="8" t="n">
-        <v>1849688064</v>
-      </c>
-      <c r="Y24" s="8" t="n"/>
       <c r="Z24" s="8" t="n"/>
+      <c r="AA24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="n">
@@ -2041,49 +2192,56 @@
       </c>
       <c r="D25" s="8" t="n"/>
       <c r="E25" s="8" t="n"/>
-      <c r="F25" s="8" t="n">
+      <c r="F25" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-21</t>
+        </is>
+      </c>
+      <c r="G25" s="8" t="n"/>
+      <c r="H25" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-23</t>
+        </is>
+      </c>
+      <c r="I25" s="8" t="n"/>
+      <c r="J25" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="G25" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="H25" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="I25" s="8" t="n">
+      <c r="K25" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="L25" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="M25" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="J25" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="K25" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="L25" s="8" t="n"/>
-      <c r="M25" s="8" t="n"/>
-      <c r="N25" s="8" t="n"/>
-      <c r="O25" s="8" t="n"/>
+      <c r="N25" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="O25" s="8" t="n">
+        <v>56</v>
+      </c>
       <c r="P25" s="8" t="n"/>
       <c r="Q25" s="8" t="n"/>
-      <c r="R25" s="8" t="n">
-        <v>802816</v>
-      </c>
-      <c r="S25" s="8" t="n">
-        <v>802816</v>
-      </c>
-      <c r="T25" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="R25" s="8" t="n"/>
+      <c r="S25" s="8" t="n"/>
+      <c r="T25" s="8" t="n"/>
       <c r="U25" s="8" t="n"/>
       <c r="V25" s="8" t="n">
+        <v>802816</v>
+      </c>
+      <c r="W25" s="8" t="n">
+        <v>802816</v>
+      </c>
+      <c r="X25" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y25" s="8" t="n"/>
+      <c r="Z25" s="8" t="n">
         <v>1605632</v>
       </c>
-      <c r="W25" s="8" t="n"/>
-      <c r="X25" s="8" t="n"/>
-      <c r="Y25" s="8" t="n">
-        <v>1605632</v>
-      </c>
-      <c r="Z25" s="8" t="n"/>
+      <c r="AA25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="n">
@@ -2092,50 +2250,57 @@
       <c r="B26" s="8" t="n"/>
       <c r="C26" s="8" t="inlineStr">
         <is>
-          <t>ReLU: 2-23</t>
+          <t>ReLU(inplace): 2-23</t>
         </is>
       </c>
       <c r="D26" s="8" t="n"/>
       <c r="E26" s="8" t="n"/>
-      <c r="F26" s="8" t="n">
+      <c r="F26" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-22</t>
+        </is>
+      </c>
+      <c r="G26" s="8" t="n"/>
+      <c r="H26" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-24</t>
+        </is>
+      </c>
+      <c r="I26" s="8" t="n"/>
+      <c r="J26" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="G26" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="H26" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="I26" s="8" t="n">
+      <c r="K26" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="L26" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="M26" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="J26" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="K26" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="L26" s="8" t="n"/>
-      <c r="M26" s="8" t="n"/>
-      <c r="N26" s="8" t="n"/>
-      <c r="O26" s="8" t="n"/>
+      <c r="N26" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="O26" s="8" t="n">
+        <v>56</v>
+      </c>
       <c r="P26" s="8" t="n"/>
       <c r="Q26" s="8" t="n"/>
-      <c r="R26" s="8" t="n">
-        <v>802816</v>
-      </c>
-      <c r="S26" s="8" t="n">
-        <v>802816</v>
-      </c>
+      <c r="R26" s="8" t="n"/>
+      <c r="S26" s="8" t="n"/>
       <c r="T26" s="8" t="n"/>
       <c r="U26" s="8" t="n"/>
-      <c r="V26" s="8" t="n"/>
+      <c r="V26" s="8" t="n">
+        <v>802816</v>
+      </c>
       <c r="W26" s="8" t="n">
         <v>802816</v>
       </c>
       <c r="X26" s="8" t="n"/>
       <c r="Y26" s="8" t="n"/>
-      <c r="Z26" s="8" t="n">
+      <c r="Z26" s="8" t="n"/>
+      <c r="AA26" s="8" t="n">
         <v>802816</v>
       </c>
     </row>
@@ -2151,61 +2316,68 @@
       </c>
       <c r="D27" s="8" t="n"/>
       <c r="E27" s="8" t="n"/>
-      <c r="F27" s="8" t="n">
+      <c r="F27" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-23</t>
+        </is>
+      </c>
+      <c r="G27" s="8" t="n"/>
+      <c r="H27" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-25</t>
+        </is>
+      </c>
+      <c r="I27" s="8" t="n"/>
+      <c r="J27" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="G27" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="H27" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="I27" s="8" t="n">
+      <c r="K27" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="L27" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="M27" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="J27" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="K27" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="L27" s="8" t="n">
+      <c r="N27" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="O27" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="P27" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="M27" s="8" t="n">
+      <c r="Q27" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="N27" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="8" t="n">
-        <v>1</v>
-      </c>
       <c r="R27" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" s="8" t="n">
         <v>802816</v>
       </c>
-      <c r="S27" s="8" t="n">
+      <c r="W27" s="8" t="n">
         <v>802816</v>
       </c>
-      <c r="T27" s="8" t="n">
+      <c r="X27" s="8" t="n">
         <v>590080</v>
       </c>
-      <c r="U27" s="8" t="n">
+      <c r="Y27" s="8" t="n">
         <v>1850490880</v>
       </c>
-      <c r="V27" s="8" t="n"/>
-      <c r="W27" s="8" t="n"/>
-      <c r="X27" s="8" t="n">
-        <v>1849688064</v>
-      </c>
-      <c r="Y27" s="8" t="n"/>
       <c r="Z27" s="8" t="n"/>
+      <c r="AA27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="n">
@@ -2219,49 +2391,56 @@
       </c>
       <c r="D28" s="8" t="n"/>
       <c r="E28" s="8" t="n"/>
-      <c r="F28" s="8" t="n">
+      <c r="F28" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-24</t>
+        </is>
+      </c>
+      <c r="G28" s="8" t="n"/>
+      <c r="H28" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-26</t>
+        </is>
+      </c>
+      <c r="I28" s="8" t="n"/>
+      <c r="J28" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="G28" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="H28" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="I28" s="8" t="n">
+      <c r="K28" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="L28" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="M28" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="J28" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="K28" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="L28" s="8" t="n"/>
-      <c r="M28" s="8" t="n"/>
-      <c r="N28" s="8" t="n"/>
-      <c r="O28" s="8" t="n"/>
+      <c r="N28" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="O28" s="8" t="n">
+        <v>56</v>
+      </c>
       <c r="P28" s="8" t="n"/>
       <c r="Q28" s="8" t="n"/>
-      <c r="R28" s="8" t="n">
-        <v>802816</v>
-      </c>
-      <c r="S28" s="8" t="n">
-        <v>802816</v>
-      </c>
-      <c r="T28" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="R28" s="8" t="n"/>
+      <c r="S28" s="8" t="n"/>
+      <c r="T28" s="8" t="n"/>
       <c r="U28" s="8" t="n"/>
       <c r="V28" s="8" t="n">
+        <v>802816</v>
+      </c>
+      <c r="W28" s="8" t="n">
+        <v>802816</v>
+      </c>
+      <c r="X28" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="Y28" s="8" t="n"/>
+      <c r="Z28" s="8" t="n">
         <v>1605632</v>
       </c>
-      <c r="W28" s="8" t="n"/>
-      <c r="X28" s="8" t="n"/>
-      <c r="Y28" s="8" t="n">
-        <v>1605632</v>
-      </c>
-      <c r="Z28" s="8" t="n"/>
+      <c r="AA28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="n">
@@ -2270,50 +2449,57 @@
       <c r="B29" s="8" t="n"/>
       <c r="C29" s="8" t="inlineStr">
         <is>
-          <t>ReLU: 2-26</t>
+          <t>ReLU(inplace): 2-26</t>
         </is>
       </c>
       <c r="D29" s="8" t="n"/>
       <c r="E29" s="8" t="n"/>
-      <c r="F29" s="8" t="n">
+      <c r="F29" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-25</t>
+        </is>
+      </c>
+      <c r="G29" s="8" t="n"/>
+      <c r="H29" s="8" t="inlineStr">
+        <is>
+          <t>MaxPool2d: 2-27</t>
+        </is>
+      </c>
+      <c r="I29" s="8" t="n"/>
+      <c r="J29" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="G29" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="H29" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="I29" s="8" t="n">
+      <c r="K29" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="L29" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="M29" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="J29" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="K29" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="L29" s="8" t="n"/>
-      <c r="M29" s="8" t="n"/>
-      <c r="N29" s="8" t="n"/>
-      <c r="O29" s="8" t="n"/>
+      <c r="N29" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="O29" s="8" t="n">
+        <v>56</v>
+      </c>
       <c r="P29" s="8" t="n"/>
       <c r="Q29" s="8" t="n"/>
-      <c r="R29" s="8" t="n">
-        <v>802816</v>
-      </c>
-      <c r="S29" s="8" t="n">
-        <v>802816</v>
-      </c>
+      <c r="R29" s="8" t="n"/>
+      <c r="S29" s="8" t="n"/>
       <c r="T29" s="8" t="n"/>
       <c r="U29" s="8" t="n"/>
-      <c r="V29" s="8" t="n"/>
+      <c r="V29" s="8" t="n">
+        <v>802816</v>
+      </c>
       <c r="W29" s="8" t="n">
         <v>802816</v>
       </c>
       <c r="X29" s="8" t="n"/>
       <c r="Y29" s="8" t="n"/>
-      <c r="Z29" s="8" t="n">
+      <c r="Z29" s="8" t="n"/>
+      <c r="AA29" s="8" t="n">
         <v>802816</v>
       </c>
     </row>
@@ -2329,55 +2515,62 @@
       </c>
       <c r="D30" s="8" t="n"/>
       <c r="E30" s="8" t="n"/>
-      <c r="F30" s="8" t="n">
+      <c r="F30" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-26</t>
+        </is>
+      </c>
+      <c r="G30" s="8" t="n"/>
+      <c r="H30" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-28</t>
+        </is>
+      </c>
+      <c r="I30" s="8" t="n"/>
+      <c r="J30" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="G30" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="H30" s="8" t="n">
-        <v>56</v>
-      </c>
-      <c r="I30" s="8" t="n">
+      <c r="K30" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="L30" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="M30" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="J30" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="K30" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="L30" s="8" t="n">
+      <c r="N30" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="O30" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="P30" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="M30" s="8" t="n">
+      <c r="Q30" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N30" s="8" t="n">
+      <c r="R30" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="O30" s="8" t="n"/>
-      <c r="P30" s="8" t="n">
+      <c r="S30" s="8" t="n"/>
+      <c r="T30" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="Q30" s="8" t="n"/>
-      <c r="R30" s="8" t="n">
-        <v>802816</v>
-      </c>
-      <c r="S30" s="8" t="n">
-        <v>200704</v>
-      </c>
-      <c r="T30" s="8" t="n"/>
       <c r="U30" s="8" t="n"/>
       <c r="V30" s="8" t="n">
+        <v>802816</v>
+      </c>
+      <c r="W30" s="8" t="n">
+        <v>200704</v>
+      </c>
+      <c r="X30" s="8" t="n"/>
+      <c r="Y30" s="8" t="n"/>
+      <c r="Z30" s="8" t="n">
         <v>602112</v>
       </c>
-      <c r="W30" s="8" t="n"/>
-      <c r="X30" s="8" t="n"/>
-      <c r="Y30" s="8" t="n">
-        <v>629407744</v>
-      </c>
-      <c r="Z30" s="8" t="n"/>
+      <c r="AA30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="n">
@@ -2391,61 +2584,68 @@
       </c>
       <c r="D31" s="8" t="n"/>
       <c r="E31" s="8" t="n"/>
-      <c r="F31" s="8" t="n">
+      <c r="F31" s="8" t="inlineStr">
+        <is>
+          <t>MaxPool2d: 2-27</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="n"/>
+      <c r="H31" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-29</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="n"/>
+      <c r="J31" s="8" t="n">
         <v>256</v>
       </c>
-      <c r="G31" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="H31" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="I31" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="J31" s="8" t="n">
-        <v>28</v>
-      </c>
       <c r="K31" s="8" t="n">
         <v>28</v>
       </c>
       <c r="L31" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="M31" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N31" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="O31" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="P31" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="M31" s="8" t="n">
+      <c r="Q31" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="N31" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="8" t="n">
-        <v>1</v>
-      </c>
       <c r="R31" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" s="8" t="n">
         <v>200704</v>
       </c>
-      <c r="S31" s="8" t="n">
+      <c r="W31" s="8" t="n">
         <v>401408</v>
       </c>
-      <c r="T31" s="8" t="n">
+      <c r="X31" s="8" t="n">
         <v>1180160</v>
       </c>
-      <c r="U31" s="8" t="n">
+      <c r="Y31" s="8" t="n">
         <v>925245440</v>
       </c>
-      <c r="V31" s="8" t="n"/>
-      <c r="W31" s="8" t="n"/>
-      <c r="X31" s="8" t="n">
-        <v>924844032</v>
-      </c>
-      <c r="Y31" s="8" t="n"/>
       <c r="Z31" s="8" t="n"/>
+      <c r="AA31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="n">
@@ -2459,49 +2659,56 @@
       </c>
       <c r="D32" s="8" t="n"/>
       <c r="E32" s="8" t="n"/>
-      <c r="F32" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G32" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="H32" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="I32" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F32" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-28</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="n"/>
+      <c r="H32" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-30</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="n"/>
       <c r="J32" s="8" t="n">
-        <v>28</v>
+        <v>512</v>
       </c>
       <c r="K32" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="L32" s="8" t="n"/>
-      <c r="M32" s="8" t="n"/>
-      <c r="N32" s="8" t="n"/>
-      <c r="O32" s="8" t="n"/>
+      <c r="L32" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="M32" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N32" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="O32" s="8" t="n">
+        <v>28</v>
+      </c>
       <c r="P32" s="8" t="n"/>
       <c r="Q32" s="8" t="n"/>
-      <c r="R32" s="8" t="n">
-        <v>401408</v>
-      </c>
-      <c r="S32" s="8" t="n">
-        <v>401408</v>
-      </c>
-      <c r="T32" s="8" t="n">
-        <v>1024</v>
-      </c>
+      <c r="R32" s="8" t="n"/>
+      <c r="S32" s="8" t="n"/>
+      <c r="T32" s="8" t="n"/>
       <c r="U32" s="8" t="n"/>
       <c r="V32" s="8" t="n">
+        <v>401408</v>
+      </c>
+      <c r="W32" s="8" t="n">
+        <v>401408</v>
+      </c>
+      <c r="X32" s="8" t="n">
+        <v>1024</v>
+      </c>
+      <c r="Y32" s="8" t="n"/>
+      <c r="Z32" s="8" t="n">
         <v>802816</v>
       </c>
-      <c r="W32" s="8" t="n"/>
-      <c r="X32" s="8" t="n"/>
-      <c r="Y32" s="8" t="n">
-        <v>802816</v>
-      </c>
-      <c r="Z32" s="8" t="n"/>
+      <c r="AA32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="n">
@@ -2510,50 +2717,57 @@
       <c r="B33" s="8" t="n"/>
       <c r="C33" s="8" t="inlineStr">
         <is>
-          <t>ReLU: 2-30</t>
+          <t>ReLU(inplace): 2-30</t>
         </is>
       </c>
       <c r="D33" s="8" t="n"/>
       <c r="E33" s="8" t="n"/>
-      <c r="F33" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G33" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="H33" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="I33" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F33" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-29</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="n"/>
+      <c r="H33" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-31</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="n"/>
       <c r="J33" s="8" t="n">
-        <v>28</v>
+        <v>512</v>
       </c>
       <c r="K33" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="L33" s="8" t="n"/>
-      <c r="M33" s="8" t="n"/>
-      <c r="N33" s="8" t="n"/>
-      <c r="O33" s="8" t="n"/>
+      <c r="L33" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="M33" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N33" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="O33" s="8" t="n">
+        <v>28</v>
+      </c>
       <c r="P33" s="8" t="n"/>
       <c r="Q33" s="8" t="n"/>
-      <c r="R33" s="8" t="n">
-        <v>401408</v>
-      </c>
-      <c r="S33" s="8" t="n">
-        <v>401408</v>
-      </c>
+      <c r="R33" s="8" t="n"/>
+      <c r="S33" s="8" t="n"/>
       <c r="T33" s="8" t="n"/>
       <c r="U33" s="8" t="n"/>
-      <c r="V33" s="8" t="n"/>
+      <c r="V33" s="8" t="n">
+        <v>401408</v>
+      </c>
       <c r="W33" s="8" t="n">
         <v>401408</v>
       </c>
       <c r="X33" s="8" t="n"/>
       <c r="Y33" s="8" t="n"/>
-      <c r="Z33" s="8" t="n">
+      <c r="Z33" s="8" t="n"/>
+      <c r="AA33" s="8" t="n">
         <v>401408</v>
       </c>
     </row>
@@ -2569,61 +2783,68 @@
       </c>
       <c r="D34" s="8" t="n"/>
       <c r="E34" s="8" t="n"/>
-      <c r="F34" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G34" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="H34" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="I34" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F34" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-30</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="n"/>
+      <c r="H34" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-32</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="n"/>
       <c r="J34" s="8" t="n">
-        <v>28</v>
+        <v>512</v>
       </c>
       <c r="K34" s="8" t="n">
         <v>28</v>
       </c>
       <c r="L34" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="M34" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N34" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="O34" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="P34" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="M34" s="8" t="n">
+      <c r="Q34" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="N34" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="8" t="n">
-        <v>1</v>
-      </c>
       <c r="R34" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" s="8" t="n">
         <v>401408</v>
       </c>
-      <c r="S34" s="8" t="n">
+      <c r="W34" s="8" t="n">
         <v>401408</v>
       </c>
-      <c r="T34" s="8" t="n">
+      <c r="X34" s="8" t="n">
         <v>2359808</v>
       </c>
-      <c r="U34" s="8" t="n">
+      <c r="Y34" s="8" t="n">
         <v>1850089472</v>
       </c>
-      <c r="V34" s="8" t="n"/>
-      <c r="W34" s="8" t="n"/>
-      <c r="X34" s="8" t="n">
-        <v>1849688064</v>
-      </c>
-      <c r="Y34" s="8" t="n"/>
       <c r="Z34" s="8" t="n"/>
+      <c r="AA34" s="8" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="7" t="n">
@@ -2637,49 +2858,56 @@
       </c>
       <c r="D35" s="8" t="n"/>
       <c r="E35" s="8" t="n"/>
-      <c r="F35" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G35" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="H35" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="I35" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F35" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-31</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="n"/>
+      <c r="H35" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-33</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="n"/>
       <c r="J35" s="8" t="n">
-        <v>28</v>
+        <v>512</v>
       </c>
       <c r="K35" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="L35" s="8" t="n"/>
-      <c r="M35" s="8" t="n"/>
-      <c r="N35" s="8" t="n"/>
-      <c r="O35" s="8" t="n"/>
+      <c r="L35" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="M35" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N35" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="O35" s="8" t="n">
+        <v>28</v>
+      </c>
       <c r="P35" s="8" t="n"/>
       <c r="Q35" s="8" t="n"/>
-      <c r="R35" s="8" t="n">
-        <v>401408</v>
-      </c>
-      <c r="S35" s="8" t="n">
-        <v>401408</v>
-      </c>
-      <c r="T35" s="8" t="n">
-        <v>1024</v>
-      </c>
+      <c r="R35" s="8" t="n"/>
+      <c r="S35" s="8" t="n"/>
+      <c r="T35" s="8" t="n"/>
       <c r="U35" s="8" t="n"/>
       <c r="V35" s="8" t="n">
+        <v>401408</v>
+      </c>
+      <c r="W35" s="8" t="n">
+        <v>401408</v>
+      </c>
+      <c r="X35" s="8" t="n">
+        <v>1024</v>
+      </c>
+      <c r="Y35" s="8" t="n"/>
+      <c r="Z35" s="8" t="n">
         <v>802816</v>
       </c>
-      <c r="W35" s="8" t="n"/>
-      <c r="X35" s="8" t="n"/>
-      <c r="Y35" s="8" t="n">
-        <v>802816</v>
-      </c>
-      <c r="Z35" s="8" t="n"/>
+      <c r="AA35" s="8" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="7" t="n">
@@ -2688,50 +2916,57 @@
       <c r="B36" s="8" t="n"/>
       <c r="C36" s="8" t="inlineStr">
         <is>
-          <t>ReLU: 2-33</t>
+          <t>ReLU(inplace): 2-33</t>
         </is>
       </c>
       <c r="D36" s="8" t="n"/>
       <c r="E36" s="8" t="n"/>
-      <c r="F36" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G36" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="H36" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="I36" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F36" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-32</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="n"/>
+      <c r="H36" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-34</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="n"/>
       <c r="J36" s="8" t="n">
-        <v>28</v>
+        <v>512</v>
       </c>
       <c r="K36" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="L36" s="8" t="n"/>
-      <c r="M36" s="8" t="n"/>
-      <c r="N36" s="8" t="n"/>
-      <c r="O36" s="8" t="n"/>
+      <c r="L36" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="M36" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N36" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="O36" s="8" t="n">
+        <v>28</v>
+      </c>
       <c r="P36" s="8" t="n"/>
       <c r="Q36" s="8" t="n"/>
-      <c r="R36" s="8" t="n">
-        <v>401408</v>
-      </c>
-      <c r="S36" s="8" t="n">
-        <v>401408</v>
-      </c>
+      <c r="R36" s="8" t="n"/>
+      <c r="S36" s="8" t="n"/>
       <c r="T36" s="8" t="n"/>
       <c r="U36" s="8" t="n"/>
-      <c r="V36" s="8" t="n"/>
+      <c r="V36" s="8" t="n">
+        <v>401408</v>
+      </c>
       <c r="W36" s="8" t="n">
         <v>401408</v>
       </c>
       <c r="X36" s="8" t="n"/>
       <c r="Y36" s="8" t="n"/>
-      <c r="Z36" s="8" t="n">
+      <c r="Z36" s="8" t="n"/>
+      <c r="AA36" s="8" t="n">
         <v>401408</v>
       </c>
     </row>
@@ -2747,61 +2982,68 @@
       </c>
       <c r="D37" s="8" t="n"/>
       <c r="E37" s="8" t="n"/>
-      <c r="F37" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G37" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="H37" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="I37" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F37" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-33</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="n"/>
+      <c r="H37" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-35</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="n"/>
       <c r="J37" s="8" t="n">
-        <v>28</v>
+        <v>512</v>
       </c>
       <c r="K37" s="8" t="n">
         <v>28</v>
       </c>
       <c r="L37" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="M37" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N37" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="O37" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="P37" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="M37" s="8" t="n">
+      <c r="Q37" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="N37" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="8" t="n">
-        <v>1</v>
-      </c>
       <c r="R37" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" s="8" t="n">
         <v>401408</v>
       </c>
-      <c r="S37" s="8" t="n">
+      <c r="W37" s="8" t="n">
         <v>401408</v>
       </c>
-      <c r="T37" s="8" t="n">
+      <c r="X37" s="8" t="n">
         <v>2359808</v>
       </c>
-      <c r="U37" s="8" t="n">
+      <c r="Y37" s="8" t="n">
         <v>1850089472</v>
       </c>
-      <c r="V37" s="8" t="n"/>
-      <c r="W37" s="8" t="n"/>
-      <c r="X37" s="8" t="n">
-        <v>1849688064</v>
-      </c>
-      <c r="Y37" s="8" t="n"/>
       <c r="Z37" s="8" t="n"/>
+      <c r="AA37" s="8" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="7" t="n">
@@ -2815,49 +3057,56 @@
       </c>
       <c r="D38" s="8" t="n"/>
       <c r="E38" s="8" t="n"/>
-      <c r="F38" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G38" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="H38" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="I38" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F38" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-34</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="n"/>
+      <c r="H38" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-36</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="n"/>
       <c r="J38" s="8" t="n">
-        <v>28</v>
+        <v>512</v>
       </c>
       <c r="K38" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="L38" s="8" t="n"/>
-      <c r="M38" s="8" t="n"/>
-      <c r="N38" s="8" t="n"/>
-      <c r="O38" s="8" t="n"/>
+      <c r="L38" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="M38" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N38" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="O38" s="8" t="n">
+        <v>28</v>
+      </c>
       <c r="P38" s="8" t="n"/>
       <c r="Q38" s="8" t="n"/>
-      <c r="R38" s="8" t="n">
-        <v>401408</v>
-      </c>
-      <c r="S38" s="8" t="n">
-        <v>401408</v>
-      </c>
-      <c r="T38" s="8" t="n">
-        <v>1024</v>
-      </c>
+      <c r="R38" s="8" t="n"/>
+      <c r="S38" s="8" t="n"/>
+      <c r="T38" s="8" t="n"/>
       <c r="U38" s="8" t="n"/>
       <c r="V38" s="8" t="n">
+        <v>401408</v>
+      </c>
+      <c r="W38" s="8" t="n">
+        <v>401408</v>
+      </c>
+      <c r="X38" s="8" t="n">
+        <v>1024</v>
+      </c>
+      <c r="Y38" s="8" t="n"/>
+      <c r="Z38" s="8" t="n">
         <v>802816</v>
       </c>
-      <c r="W38" s="8" t="n"/>
-      <c r="X38" s="8" t="n"/>
-      <c r="Y38" s="8" t="n">
-        <v>802816</v>
-      </c>
-      <c r="Z38" s="8" t="n"/>
+      <c r="AA38" s="8" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="7" t="n">
@@ -2866,50 +3115,57 @@
       <c r="B39" s="8" t="n"/>
       <c r="C39" s="8" t="inlineStr">
         <is>
-          <t>ReLU: 2-36</t>
+          <t>ReLU(inplace): 2-36</t>
         </is>
       </c>
       <c r="D39" s="8" t="n"/>
       <c r="E39" s="8" t="n"/>
-      <c r="F39" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G39" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="H39" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="I39" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F39" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-35</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="n"/>
+      <c r="H39" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-37</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="n"/>
       <c r="J39" s="8" t="n">
-        <v>28</v>
+        <v>512</v>
       </c>
       <c r="K39" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="L39" s="8" t="n"/>
-      <c r="M39" s="8" t="n"/>
-      <c r="N39" s="8" t="n"/>
-      <c r="O39" s="8" t="n"/>
+      <c r="L39" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="M39" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N39" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="O39" s="8" t="n">
+        <v>28</v>
+      </c>
       <c r="P39" s="8" t="n"/>
       <c r="Q39" s="8" t="n"/>
-      <c r="R39" s="8" t="n">
-        <v>401408</v>
-      </c>
-      <c r="S39" s="8" t="n">
-        <v>401408</v>
-      </c>
+      <c r="R39" s="8" t="n"/>
+      <c r="S39" s="8" t="n"/>
       <c r="T39" s="8" t="n"/>
       <c r="U39" s="8" t="n"/>
-      <c r="V39" s="8" t="n"/>
+      <c r="V39" s="8" t="n">
+        <v>401408</v>
+      </c>
       <c r="W39" s="8" t="n">
         <v>401408</v>
       </c>
       <c r="X39" s="8" t="n"/>
       <c r="Y39" s="8" t="n"/>
-      <c r="Z39" s="8" t="n">
+      <c r="Z39" s="8" t="n"/>
+      <c r="AA39" s="8" t="n">
         <v>401408</v>
       </c>
     </row>
@@ -2925,61 +3181,68 @@
       </c>
       <c r="D40" s="8" t="n"/>
       <c r="E40" s="8" t="n"/>
-      <c r="F40" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G40" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="H40" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="I40" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F40" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-36</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="n"/>
+      <c r="H40" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-38</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="n"/>
       <c r="J40" s="8" t="n">
-        <v>28</v>
+        <v>512</v>
       </c>
       <c r="K40" s="8" t="n">
         <v>28</v>
       </c>
       <c r="L40" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="M40" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N40" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="O40" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="P40" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="M40" s="8" t="n">
+      <c r="Q40" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="N40" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="8" t="n">
-        <v>1</v>
-      </c>
       <c r="R40" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" s="8" t="n">
         <v>401408</v>
       </c>
-      <c r="S40" s="8" t="n">
+      <c r="W40" s="8" t="n">
         <v>401408</v>
       </c>
-      <c r="T40" s="8" t="n">
+      <c r="X40" s="8" t="n">
         <v>2359808</v>
       </c>
-      <c r="U40" s="8" t="n">
+      <c r="Y40" s="8" t="n">
         <v>1850089472</v>
       </c>
-      <c r="V40" s="8" t="n"/>
-      <c r="W40" s="8" t="n"/>
-      <c r="X40" s="8" t="n">
-        <v>1849688064</v>
-      </c>
-      <c r="Y40" s="8" t="n"/>
       <c r="Z40" s="8" t="n"/>
+      <c r="AA40" s="8" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="7" t="n">
@@ -2993,49 +3256,56 @@
       </c>
       <c r="D41" s="8" t="n"/>
       <c r="E41" s="8" t="n"/>
-      <c r="F41" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G41" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="H41" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="I41" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F41" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-37</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="n"/>
+      <c r="H41" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-39</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="n"/>
       <c r="J41" s="8" t="n">
-        <v>28</v>
+        <v>512</v>
       </c>
       <c r="K41" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="L41" s="8" t="n"/>
-      <c r="M41" s="8" t="n"/>
-      <c r="N41" s="8" t="n"/>
-      <c r="O41" s="8" t="n"/>
+      <c r="L41" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="M41" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N41" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="O41" s="8" t="n">
+        <v>28</v>
+      </c>
       <c r="P41" s="8" t="n"/>
       <c r="Q41" s="8" t="n"/>
-      <c r="R41" s="8" t="n">
-        <v>401408</v>
-      </c>
-      <c r="S41" s="8" t="n">
-        <v>401408</v>
-      </c>
-      <c r="T41" s="8" t="n">
-        <v>1024</v>
-      </c>
+      <c r="R41" s="8" t="n"/>
+      <c r="S41" s="8" t="n"/>
+      <c r="T41" s="8" t="n"/>
       <c r="U41" s="8" t="n"/>
       <c r="V41" s="8" t="n">
+        <v>401408</v>
+      </c>
+      <c r="W41" s="8" t="n">
+        <v>401408</v>
+      </c>
+      <c r="X41" s="8" t="n">
+        <v>1024</v>
+      </c>
+      <c r="Y41" s="8" t="n"/>
+      <c r="Z41" s="8" t="n">
         <v>802816</v>
       </c>
-      <c r="W41" s="8" t="n"/>
-      <c r="X41" s="8" t="n"/>
-      <c r="Y41" s="8" t="n">
-        <v>802816</v>
-      </c>
-      <c r="Z41" s="8" t="n"/>
+      <c r="AA41" s="8" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="7" t="n">
@@ -3044,50 +3314,57 @@
       <c r="B42" s="8" t="n"/>
       <c r="C42" s="8" t="inlineStr">
         <is>
-          <t>ReLU: 2-39</t>
+          <t>ReLU(inplace): 2-39</t>
         </is>
       </c>
       <c r="D42" s="8" t="n"/>
       <c r="E42" s="8" t="n"/>
-      <c r="F42" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G42" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="H42" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="I42" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F42" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-38</t>
+        </is>
+      </c>
+      <c r="G42" s="8" t="n"/>
+      <c r="H42" s="8" t="inlineStr">
+        <is>
+          <t>MaxPool2d: 2-40</t>
+        </is>
+      </c>
+      <c r="I42" s="8" t="n"/>
       <c r="J42" s="8" t="n">
-        <v>28</v>
+        <v>512</v>
       </c>
       <c r="K42" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="L42" s="8" t="n"/>
-      <c r="M42" s="8" t="n"/>
-      <c r="N42" s="8" t="n"/>
-      <c r="O42" s="8" t="n"/>
+      <c r="L42" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="M42" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N42" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="O42" s="8" t="n">
+        <v>28</v>
+      </c>
       <c r="P42" s="8" t="n"/>
       <c r="Q42" s="8" t="n"/>
-      <c r="R42" s="8" t="n">
-        <v>401408</v>
-      </c>
-      <c r="S42" s="8" t="n">
-        <v>401408</v>
-      </c>
+      <c r="R42" s="8" t="n"/>
+      <c r="S42" s="8" t="n"/>
       <c r="T42" s="8" t="n"/>
       <c r="U42" s="8" t="n"/>
-      <c r="V42" s="8" t="n"/>
+      <c r="V42" s="8" t="n">
+        <v>401408</v>
+      </c>
       <c r="W42" s="8" t="n">
         <v>401408</v>
       </c>
       <c r="X42" s="8" t="n"/>
       <c r="Y42" s="8" t="n"/>
-      <c r="Z42" s="8" t="n">
+      <c r="Z42" s="8" t="n"/>
+      <c r="AA42" s="8" t="n">
         <v>401408</v>
       </c>
     </row>
@@ -3103,55 +3380,62 @@
       </c>
       <c r="D43" s="8" t="n"/>
       <c r="E43" s="8" t="n"/>
-      <c r="F43" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G43" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="H43" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="I43" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F43" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-39</t>
+        </is>
+      </c>
+      <c r="G43" s="8" t="n"/>
+      <c r="H43" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-41</t>
+        </is>
+      </c>
+      <c r="I43" s="8" t="n"/>
       <c r="J43" s="8" t="n">
-        <v>14</v>
+        <v>512</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L43" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="M43" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N43" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O43" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="P43" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="M43" s="8" t="n">
+      <c r="Q43" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N43" s="8" t="n">
+      <c r="R43" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="O43" s="8" t="n"/>
-      <c r="P43" s="8" t="n">
+      <c r="S43" s="8" t="n"/>
+      <c r="T43" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="Q43" s="8" t="n"/>
-      <c r="R43" s="8" t="n">
-        <v>401408</v>
-      </c>
-      <c r="S43" s="8" t="n">
-        <v>100352</v>
-      </c>
-      <c r="T43" s="8" t="n"/>
       <c r="U43" s="8" t="n"/>
       <c r="V43" s="8" t="n">
+        <v>401408</v>
+      </c>
+      <c r="W43" s="8" t="n">
+        <v>100352</v>
+      </c>
+      <c r="X43" s="8" t="n"/>
+      <c r="Y43" s="8" t="n"/>
+      <c r="Z43" s="8" t="n">
         <v>301056</v>
       </c>
-      <c r="W43" s="8" t="n"/>
-      <c r="X43" s="8" t="n"/>
-      <c r="Y43" s="8" t="n">
-        <v>78675968</v>
-      </c>
-      <c r="Z43" s="8" t="n"/>
+      <c r="AA43" s="8" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="7" t="n">
@@ -3165,61 +3449,68 @@
       </c>
       <c r="D44" s="8" t="n"/>
       <c r="E44" s="8" t="n"/>
-      <c r="F44" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G44" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="H44" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="I44" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F44" s="8" t="inlineStr">
+        <is>
+          <t>MaxPool2d: 2-40</t>
+        </is>
+      </c>
+      <c r="G44" s="8" t="n"/>
+      <c r="H44" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-42</t>
+        </is>
+      </c>
+      <c r="I44" s="8" t="n"/>
       <c r="J44" s="8" t="n">
-        <v>14</v>
+        <v>512</v>
       </c>
       <c r="K44" s="8" t="n">
         <v>14</v>
       </c>
       <c r="L44" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="M44" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N44" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O44" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="P44" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="M44" s="8" t="n">
+      <c r="Q44" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="N44" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O44" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="8" t="n">
-        <v>1</v>
-      </c>
       <c r="R44" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="S44" s="8" t="n">
+      <c r="W44" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="T44" s="8" t="n">
+      <c r="X44" s="8" t="n">
         <v>2359808</v>
       </c>
-      <c r="U44" s="8" t="n">
+      <c r="Y44" s="8" t="n">
         <v>462522368</v>
       </c>
-      <c r="V44" s="8" t="n"/>
-      <c r="W44" s="8" t="n"/>
-      <c r="X44" s="8" t="n">
-        <v>462422016</v>
-      </c>
-      <c r="Y44" s="8" t="n"/>
       <c r="Z44" s="8" t="n"/>
+      <c r="AA44" s="8" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="7" t="n">
@@ -3233,49 +3524,56 @@
       </c>
       <c r="D45" s="8" t="n"/>
       <c r="E45" s="8" t="n"/>
-      <c r="F45" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G45" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="H45" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="I45" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F45" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-41</t>
+        </is>
+      </c>
+      <c r="G45" s="8" t="n"/>
+      <c r="H45" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-43</t>
+        </is>
+      </c>
+      <c r="I45" s="8" t="n"/>
       <c r="J45" s="8" t="n">
-        <v>14</v>
+        <v>512</v>
       </c>
       <c r="K45" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="L45" s="8" t="n"/>
-      <c r="M45" s="8" t="n"/>
-      <c r="N45" s="8" t="n"/>
-      <c r="O45" s="8" t="n"/>
+      <c r="L45" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="M45" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N45" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O45" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P45" s="8" t="n"/>
       <c r="Q45" s="8" t="n"/>
-      <c r="R45" s="8" t="n">
-        <v>100352</v>
-      </c>
-      <c r="S45" s="8" t="n">
-        <v>100352</v>
-      </c>
-      <c r="T45" s="8" t="n">
-        <v>1024</v>
-      </c>
+      <c r="R45" s="8" t="n"/>
+      <c r="S45" s="8" t="n"/>
+      <c r="T45" s="8" t="n"/>
       <c r="U45" s="8" t="n"/>
       <c r="V45" s="8" t="n">
+        <v>100352</v>
+      </c>
+      <c r="W45" s="8" t="n">
+        <v>100352</v>
+      </c>
+      <c r="X45" s="8" t="n">
+        <v>1024</v>
+      </c>
+      <c r="Y45" s="8" t="n"/>
+      <c r="Z45" s="8" t="n">
         <v>200704</v>
       </c>
-      <c r="W45" s="8" t="n"/>
-      <c r="X45" s="8" t="n"/>
-      <c r="Y45" s="8" t="n">
-        <v>200704</v>
-      </c>
-      <c r="Z45" s="8" t="n"/>
+      <c r="AA45" s="8" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="7" t="n">
@@ -3284,50 +3582,57 @@
       <c r="B46" s="8" t="n"/>
       <c r="C46" s="8" t="inlineStr">
         <is>
-          <t>ReLU: 2-43</t>
+          <t>ReLU(inplace): 2-43</t>
         </is>
       </c>
       <c r="D46" s="8" t="n"/>
       <c r="E46" s="8" t="n"/>
-      <c r="F46" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G46" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="H46" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="I46" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F46" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-42</t>
+        </is>
+      </c>
+      <c r="G46" s="8" t="n"/>
+      <c r="H46" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-44</t>
+        </is>
+      </c>
+      <c r="I46" s="8" t="n"/>
       <c r="J46" s="8" t="n">
-        <v>14</v>
+        <v>512</v>
       </c>
       <c r="K46" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="L46" s="8" t="n"/>
-      <c r="M46" s="8" t="n"/>
-      <c r="N46" s="8" t="n"/>
-      <c r="O46" s="8" t="n"/>
+      <c r="L46" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="M46" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N46" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O46" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P46" s="8" t="n"/>
       <c r="Q46" s="8" t="n"/>
-      <c r="R46" s="8" t="n">
-        <v>100352</v>
-      </c>
-      <c r="S46" s="8" t="n">
-        <v>100352</v>
-      </c>
+      <c r="R46" s="8" t="n"/>
+      <c r="S46" s="8" t="n"/>
       <c r="T46" s="8" t="n"/>
       <c r="U46" s="8" t="n"/>
-      <c r="V46" s="8" t="n"/>
+      <c r="V46" s="8" t="n">
+        <v>100352</v>
+      </c>
       <c r="W46" s="8" t="n">
         <v>100352</v>
       </c>
       <c r="X46" s="8" t="n"/>
       <c r="Y46" s="8" t="n"/>
-      <c r="Z46" s="8" t="n">
+      <c r="Z46" s="8" t="n"/>
+      <c r="AA46" s="8" t="n">
         <v>100352</v>
       </c>
     </row>
@@ -3343,61 +3648,68 @@
       </c>
       <c r="D47" s="8" t="n"/>
       <c r="E47" s="8" t="n"/>
-      <c r="F47" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G47" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="H47" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="I47" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F47" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-43</t>
+        </is>
+      </c>
+      <c r="G47" s="8" t="n"/>
+      <c r="H47" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-45</t>
+        </is>
+      </c>
+      <c r="I47" s="8" t="n"/>
       <c r="J47" s="8" t="n">
-        <v>14</v>
+        <v>512</v>
       </c>
       <c r="K47" s="8" t="n">
         <v>14</v>
       </c>
       <c r="L47" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="M47" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N47" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O47" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="P47" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="M47" s="8" t="n">
+      <c r="Q47" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="N47" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O47" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P47" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="8" t="n">
-        <v>1</v>
-      </c>
       <c r="R47" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="S47" s="8" t="n">
+      <c r="W47" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="T47" s="8" t="n">
+      <c r="X47" s="8" t="n">
         <v>2359808</v>
       </c>
-      <c r="U47" s="8" t="n">
+      <c r="Y47" s="8" t="n">
         <v>462522368</v>
       </c>
-      <c r="V47" s="8" t="n"/>
-      <c r="W47" s="8" t="n"/>
-      <c r="X47" s="8" t="n">
-        <v>462422016</v>
-      </c>
-      <c r="Y47" s="8" t="n"/>
       <c r="Z47" s="8" t="n"/>
+      <c r="AA47" s="8" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="7" t="n">
@@ -3411,49 +3723,56 @@
       </c>
       <c r="D48" s="8" t="n"/>
       <c r="E48" s="8" t="n"/>
-      <c r="F48" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G48" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="H48" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="I48" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F48" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-44</t>
+        </is>
+      </c>
+      <c r="G48" s="8" t="n"/>
+      <c r="H48" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-46</t>
+        </is>
+      </c>
+      <c r="I48" s="8" t="n"/>
       <c r="J48" s="8" t="n">
-        <v>14</v>
+        <v>512</v>
       </c>
       <c r="K48" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="L48" s="8" t="n"/>
-      <c r="M48" s="8" t="n"/>
-      <c r="N48" s="8" t="n"/>
-      <c r="O48" s="8" t="n"/>
+      <c r="L48" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="M48" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N48" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O48" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P48" s="8" t="n"/>
       <c r="Q48" s="8" t="n"/>
-      <c r="R48" s="8" t="n">
-        <v>100352</v>
-      </c>
-      <c r="S48" s="8" t="n">
-        <v>100352</v>
-      </c>
-      <c r="T48" s="8" t="n">
-        <v>1024</v>
-      </c>
+      <c r="R48" s="8" t="n"/>
+      <c r="S48" s="8" t="n"/>
+      <c r="T48" s="8" t="n"/>
       <c r="U48" s="8" t="n"/>
       <c r="V48" s="8" t="n">
+        <v>100352</v>
+      </c>
+      <c r="W48" s="8" t="n">
+        <v>100352</v>
+      </c>
+      <c r="X48" s="8" t="n">
+        <v>1024</v>
+      </c>
+      <c r="Y48" s="8" t="n"/>
+      <c r="Z48" s="8" t="n">
         <v>200704</v>
       </c>
-      <c r="W48" s="8" t="n"/>
-      <c r="X48" s="8" t="n"/>
-      <c r="Y48" s="8" t="n">
-        <v>200704</v>
-      </c>
-      <c r="Z48" s="8" t="n"/>
+      <c r="AA48" s="8" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="7" t="n">
@@ -3462,50 +3781,57 @@
       <c r="B49" s="8" t="n"/>
       <c r="C49" s="8" t="inlineStr">
         <is>
-          <t>ReLU: 2-46</t>
+          <t>ReLU(inplace): 2-46</t>
         </is>
       </c>
       <c r="D49" s="8" t="n"/>
       <c r="E49" s="8" t="n"/>
-      <c r="F49" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G49" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="H49" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="I49" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F49" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-45</t>
+        </is>
+      </c>
+      <c r="G49" s="8" t="n"/>
+      <c r="H49" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-47</t>
+        </is>
+      </c>
+      <c r="I49" s="8" t="n"/>
       <c r="J49" s="8" t="n">
-        <v>14</v>
+        <v>512</v>
       </c>
       <c r="K49" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="L49" s="8" t="n"/>
-      <c r="M49" s="8" t="n"/>
-      <c r="N49" s="8" t="n"/>
-      <c r="O49" s="8" t="n"/>
+      <c r="L49" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="M49" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N49" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O49" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P49" s="8" t="n"/>
       <c r="Q49" s="8" t="n"/>
-      <c r="R49" s="8" t="n">
-        <v>100352</v>
-      </c>
-      <c r="S49" s="8" t="n">
-        <v>100352</v>
-      </c>
+      <c r="R49" s="8" t="n"/>
+      <c r="S49" s="8" t="n"/>
       <c r="T49" s="8" t="n"/>
       <c r="U49" s="8" t="n"/>
-      <c r="V49" s="8" t="n"/>
+      <c r="V49" s="8" t="n">
+        <v>100352</v>
+      </c>
       <c r="W49" s="8" t="n">
         <v>100352</v>
       </c>
       <c r="X49" s="8" t="n"/>
       <c r="Y49" s="8" t="n"/>
-      <c r="Z49" s="8" t="n">
+      <c r="Z49" s="8" t="n"/>
+      <c r="AA49" s="8" t="n">
         <v>100352</v>
       </c>
     </row>
@@ -3521,61 +3847,68 @@
       </c>
       <c r="D50" s="8" t="n"/>
       <c r="E50" s="8" t="n"/>
-      <c r="F50" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G50" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="H50" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="I50" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F50" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-46</t>
+        </is>
+      </c>
+      <c r="G50" s="8" t="n"/>
+      <c r="H50" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-48</t>
+        </is>
+      </c>
+      <c r="I50" s="8" t="n"/>
       <c r="J50" s="8" t="n">
-        <v>14</v>
+        <v>512</v>
       </c>
       <c r="K50" s="8" t="n">
         <v>14</v>
       </c>
       <c r="L50" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="M50" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N50" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O50" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="P50" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="M50" s="8" t="n">
+      <c r="Q50" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="N50" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P50" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="8" t="n">
-        <v>1</v>
-      </c>
       <c r="R50" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="S50" s="8" t="n">
+      <c r="W50" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="T50" s="8" t="n">
+      <c r="X50" s="8" t="n">
         <v>2359808</v>
       </c>
-      <c r="U50" s="8" t="n">
+      <c r="Y50" s="8" t="n">
         <v>462522368</v>
       </c>
-      <c r="V50" s="8" t="n"/>
-      <c r="W50" s="8" t="n"/>
-      <c r="X50" s="8" t="n">
-        <v>462422016</v>
-      </c>
-      <c r="Y50" s="8" t="n"/>
       <c r="Z50" s="8" t="n"/>
+      <c r="AA50" s="8" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="7" t="n">
@@ -3589,49 +3922,56 @@
       </c>
       <c r="D51" s="8" t="n"/>
       <c r="E51" s="8" t="n"/>
-      <c r="F51" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G51" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="H51" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="I51" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F51" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-47</t>
+        </is>
+      </c>
+      <c r="G51" s="8" t="n"/>
+      <c r="H51" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-49</t>
+        </is>
+      </c>
+      <c r="I51" s="8" t="n"/>
       <c r="J51" s="8" t="n">
-        <v>14</v>
+        <v>512</v>
       </c>
       <c r="K51" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="L51" s="8" t="n"/>
-      <c r="M51" s="8" t="n"/>
-      <c r="N51" s="8" t="n"/>
-      <c r="O51" s="8" t="n"/>
+      <c r="L51" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="M51" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N51" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O51" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P51" s="8" t="n"/>
       <c r="Q51" s="8" t="n"/>
-      <c r="R51" s="8" t="n">
-        <v>100352</v>
-      </c>
-      <c r="S51" s="8" t="n">
-        <v>100352</v>
-      </c>
-      <c r="T51" s="8" t="n">
-        <v>1024</v>
-      </c>
+      <c r="R51" s="8" t="n"/>
+      <c r="S51" s="8" t="n"/>
+      <c r="T51" s="8" t="n"/>
       <c r="U51" s="8" t="n"/>
       <c r="V51" s="8" t="n">
+        <v>100352</v>
+      </c>
+      <c r="W51" s="8" t="n">
+        <v>100352</v>
+      </c>
+      <c r="X51" s="8" t="n">
+        <v>1024</v>
+      </c>
+      <c r="Y51" s="8" t="n"/>
+      <c r="Z51" s="8" t="n">
         <v>200704</v>
       </c>
-      <c r="W51" s="8" t="n"/>
-      <c r="X51" s="8" t="n"/>
-      <c r="Y51" s="8" t="n">
-        <v>200704</v>
-      </c>
-      <c r="Z51" s="8" t="n"/>
+      <c r="AA51" s="8" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="7" t="n">
@@ -3640,50 +3980,57 @@
       <c r="B52" s="8" t="n"/>
       <c r="C52" s="8" t="inlineStr">
         <is>
-          <t>ReLU: 2-49</t>
+          <t>ReLU(inplace): 2-49</t>
         </is>
       </c>
       <c r="D52" s="8" t="n"/>
       <c r="E52" s="8" t="n"/>
-      <c r="F52" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G52" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="H52" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="I52" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F52" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-48</t>
+        </is>
+      </c>
+      <c r="G52" s="8" t="n"/>
+      <c r="H52" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-50</t>
+        </is>
+      </c>
+      <c r="I52" s="8" t="n"/>
       <c r="J52" s="8" t="n">
-        <v>14</v>
+        <v>512</v>
       </c>
       <c r="K52" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="L52" s="8" t="n"/>
-      <c r="M52" s="8" t="n"/>
-      <c r="N52" s="8" t="n"/>
-      <c r="O52" s="8" t="n"/>
+      <c r="L52" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="M52" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N52" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O52" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P52" s="8" t="n"/>
       <c r="Q52" s="8" t="n"/>
-      <c r="R52" s="8" t="n">
-        <v>100352</v>
-      </c>
-      <c r="S52" s="8" t="n">
-        <v>100352</v>
-      </c>
+      <c r="R52" s="8" t="n"/>
+      <c r="S52" s="8" t="n"/>
       <c r="T52" s="8" t="n"/>
       <c r="U52" s="8" t="n"/>
-      <c r="V52" s="8" t="n"/>
+      <c r="V52" s="8" t="n">
+        <v>100352</v>
+      </c>
       <c r="W52" s="8" t="n">
         <v>100352</v>
       </c>
       <c r="X52" s="8" t="n"/>
       <c r="Y52" s="8" t="n"/>
-      <c r="Z52" s="8" t="n">
+      <c r="Z52" s="8" t="n"/>
+      <c r="AA52" s="8" t="n">
         <v>100352</v>
       </c>
     </row>
@@ -3699,61 +4046,68 @@
       </c>
       <c r="D53" s="8" t="n"/>
       <c r="E53" s="8" t="n"/>
-      <c r="F53" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G53" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="H53" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="I53" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F53" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-49</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="n"/>
+      <c r="H53" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-51</t>
+        </is>
+      </c>
+      <c r="I53" s="8" t="n"/>
       <c r="J53" s="8" t="n">
-        <v>14</v>
+        <v>512</v>
       </c>
       <c r="K53" s="8" t="n">
         <v>14</v>
       </c>
       <c r="L53" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="M53" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N53" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O53" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="P53" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="M53" s="8" t="n">
+      <c r="Q53" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="N53" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O53" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P53" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="8" t="n">
-        <v>1</v>
-      </c>
       <c r="R53" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="S53" s="8" t="n">
+      <c r="W53" s="8" t="n">
         <v>100352</v>
       </c>
-      <c r="T53" s="8" t="n">
+      <c r="X53" s="8" t="n">
         <v>2359808</v>
       </c>
-      <c r="U53" s="8" t="n">
+      <c r="Y53" s="8" t="n">
         <v>462522368</v>
       </c>
-      <c r="V53" s="8" t="n"/>
-      <c r="W53" s="8" t="n"/>
-      <c r="X53" s="8" t="n">
-        <v>462422016</v>
-      </c>
-      <c r="Y53" s="8" t="n"/>
       <c r="Z53" s="8" t="n"/>
+      <c r="AA53" s="8" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="7" t="n">
@@ -3767,49 +4121,56 @@
       </c>
       <c r="D54" s="8" t="n"/>
       <c r="E54" s="8" t="n"/>
-      <c r="F54" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G54" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="H54" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="I54" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F54" s="8" t="inlineStr">
+        <is>
+          <t>Conv2d: 2-50</t>
+        </is>
+      </c>
+      <c r="G54" s="8" t="n"/>
+      <c r="H54" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-52</t>
+        </is>
+      </c>
+      <c r="I54" s="8" t="n"/>
       <c r="J54" s="8" t="n">
-        <v>14</v>
+        <v>512</v>
       </c>
       <c r="K54" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="L54" s="8" t="n"/>
-      <c r="M54" s="8" t="n"/>
-      <c r="N54" s="8" t="n"/>
-      <c r="O54" s="8" t="n"/>
+      <c r="L54" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="M54" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N54" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O54" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P54" s="8" t="n"/>
       <c r="Q54" s="8" t="n"/>
-      <c r="R54" s="8" t="n">
-        <v>100352</v>
-      </c>
-      <c r="S54" s="8" t="n">
-        <v>100352</v>
-      </c>
-      <c r="T54" s="8" t="n">
-        <v>1024</v>
-      </c>
+      <c r="R54" s="8" t="n"/>
+      <c r="S54" s="8" t="n"/>
+      <c r="T54" s="8" t="n"/>
       <c r="U54" s="8" t="n"/>
       <c r="V54" s="8" t="n">
+        <v>100352</v>
+      </c>
+      <c r="W54" s="8" t="n">
+        <v>100352</v>
+      </c>
+      <c r="X54" s="8" t="n">
+        <v>1024</v>
+      </c>
+      <c r="Y54" s="8" t="n"/>
+      <c r="Z54" s="8" t="n">
         <v>200704</v>
       </c>
-      <c r="W54" s="8" t="n"/>
-      <c r="X54" s="8" t="n"/>
-      <c r="Y54" s="8" t="n">
-        <v>200704</v>
-      </c>
-      <c r="Z54" s="8" t="n"/>
+      <c r="AA54" s="8" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="7" t="n">
@@ -3818,50 +4179,57 @@
       <c r="B55" s="8" t="n"/>
       <c r="C55" s="8" t="inlineStr">
         <is>
-          <t>ReLU: 2-52</t>
+          <t>ReLU(inplace): 2-52</t>
         </is>
       </c>
       <c r="D55" s="8" t="n"/>
       <c r="E55" s="8" t="n"/>
-      <c r="F55" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G55" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="H55" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="I55" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F55" s="8" t="inlineStr">
+        <is>
+          <t>BatchNorm2d: 2-51</t>
+        </is>
+      </c>
+      <c r="G55" s="8" t="n"/>
+      <c r="H55" s="8" t="inlineStr">
+        <is>
+          <t>MaxPool2d: 2-53</t>
+        </is>
+      </c>
+      <c r="I55" s="8" t="n"/>
       <c r="J55" s="8" t="n">
-        <v>14</v>
+        <v>512</v>
       </c>
       <c r="K55" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="L55" s="8" t="n"/>
-      <c r="M55" s="8" t="n"/>
-      <c r="N55" s="8" t="n"/>
-      <c r="O55" s="8" t="n"/>
+      <c r="L55" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="M55" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N55" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O55" s="8" t="n">
+        <v>14</v>
+      </c>
       <c r="P55" s="8" t="n"/>
       <c r="Q55" s="8" t="n"/>
-      <c r="R55" s="8" t="n">
-        <v>100352</v>
-      </c>
-      <c r="S55" s="8" t="n">
-        <v>100352</v>
-      </c>
+      <c r="R55" s="8" t="n"/>
+      <c r="S55" s="8" t="n"/>
       <c r="T55" s="8" t="n"/>
       <c r="U55" s="8" t="n"/>
-      <c r="V55" s="8" t="n"/>
+      <c r="V55" s="8" t="n">
+        <v>100352</v>
+      </c>
       <c r="W55" s="8" t="n">
         <v>100352</v>
       </c>
       <c r="X55" s="8" t="n"/>
       <c r="Y55" s="8" t="n"/>
-      <c r="Z55" s="8" t="n">
+      <c r="Z55" s="8" t="n"/>
+      <c r="AA55" s="8" t="n">
         <v>100352</v>
       </c>
     </row>
@@ -3877,55 +4245,62 @@
       </c>
       <c r="D56" s="8" t="n"/>
       <c r="E56" s="8" t="n"/>
-      <c r="F56" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G56" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="H56" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="I56" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F56" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-52</t>
+        </is>
+      </c>
+      <c r="G56" s="8" t="n"/>
+      <c r="H56" s="8" t="inlineStr">
+        <is>
+          <t>AdaptiveAvgPool2d: 1-2</t>
+        </is>
+      </c>
+      <c r="I56" s="8" t="n"/>
       <c r="J56" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="K56" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="L56" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="M56" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N56" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="K56" s="8" t="n">
+      <c r="O56" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="L56" s="8" t="n">
+      <c r="P56" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="M56" s="8" t="n">
+      <c r="Q56" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="N56" s="8" t="n">
+      <c r="R56" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="O56" s="8" t="n"/>
-      <c r="P56" s="8" t="n">
+      <c r="S56" s="8" t="n"/>
+      <c r="T56" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="Q56" s="8" t="n"/>
-      <c r="R56" s="8" t="n">
-        <v>100352</v>
-      </c>
-      <c r="S56" s="8" t="n">
-        <v>25088</v>
-      </c>
-      <c r="T56" s="8" t="n"/>
       <c r="U56" s="8" t="n"/>
       <c r="V56" s="8" t="n">
+        <v>100352</v>
+      </c>
+      <c r="W56" s="8" t="n">
+        <v>25088</v>
+      </c>
+      <c r="X56" s="8" t="n"/>
+      <c r="Y56" s="8" t="n"/>
+      <c r="Z56" s="8" t="n">
         <v>75264</v>
       </c>
-      <c r="W56" s="8" t="n"/>
-      <c r="X56" s="8" t="n"/>
-      <c r="Y56" s="8" t="n">
-        <v>4917248</v>
-      </c>
-      <c r="Z56" s="8" t="n"/>
+      <c r="AA56" s="8" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="7" t="n">
@@ -3939,43 +4314,52 @@
       <c r="C57" s="8" t="n"/>
       <c r="D57" s="8" t="n"/>
       <c r="E57" s="8" t="n"/>
-      <c r="F57" s="8" t="n">
-        <v>512</v>
-      </c>
-      <c r="G57" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="H57" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="I57" s="8" t="n">
-        <v>512</v>
-      </c>
+      <c r="F57" s="8" t="inlineStr">
+        <is>
+          <t>MaxPool2d: 2-53</t>
+        </is>
+      </c>
+      <c r="G57" s="8" t="n"/>
+      <c r="H57" s="8" t="inlineStr">
+        <is>
+          <t>Linear: 2-54</t>
+        </is>
+      </c>
+      <c r="I57" s="8" t="n"/>
       <c r="J57" s="8" t="n">
-        <v>7</v>
+        <v>512</v>
       </c>
       <c r="K57" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="L57" s="8" t="n"/>
-      <c r="M57" s="8" t="n"/>
-      <c r="N57" s="8" t="n"/>
-      <c r="O57" s="8" t="n"/>
+      <c r="L57" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="M57" s="8" t="n">
+        <v>512</v>
+      </c>
+      <c r="N57" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O57" s="8" t="n">
+        <v>7</v>
+      </c>
       <c r="P57" s="8" t="n"/>
       <c r="Q57" s="8" t="n"/>
-      <c r="R57" s="8" t="n">
-        <v>25088</v>
-      </c>
-      <c r="S57" s="8" t="n">
-        <v>25088</v>
-      </c>
+      <c r="R57" s="8" t="n"/>
+      <c r="S57" s="8" t="n"/>
       <c r="T57" s="8" t="n"/>
       <c r="U57" s="8" t="n"/>
-      <c r="V57" s="8" t="n"/>
-      <c r="W57" s="8" t="n"/>
+      <c r="V57" s="8" t="n">
+        <v>25088</v>
+      </c>
+      <c r="W57" s="8" t="n">
+        <v>25088</v>
+      </c>
       <c r="X57" s="8" t="n"/>
       <c r="Y57" s="8" t="n"/>
       <c r="Z57" s="8" t="n"/>
+      <c r="AA57" s="8" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="7" t="n">
@@ -3989,43 +4373,48 @@
       <c r="C58" s="8" t="n"/>
       <c r="D58" s="8" t="n"/>
       <c r="E58" s="8" t="n"/>
-      <c r="F58" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="F58" s="8" t="inlineStr">
+        <is>
+          <t>Dropout: 2-59</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="n"/>
+      <c r="H58" s="8" t="n"/>
+      <c r="I58" s="8" t="n"/>
       <c r="J58" s="8" t="n">
         <v>0</v>
       </c>
       <c r="K58" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="L58" s="8" t="n"/>
-      <c r="M58" s="8" t="n"/>
-      <c r="N58" s="8" t="n"/>
-      <c r="O58" s="8" t="n"/>
+      <c r="L58" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="P58" s="8" t="n"/>
       <c r="Q58" s="8" t="n"/>
-      <c r="R58" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="R58" s="8" t="n"/>
+      <c r="S58" s="8" t="n"/>
       <c r="T58" s="8" t="n"/>
       <c r="U58" s="8" t="n"/>
-      <c r="V58" s="8" t="n"/>
-      <c r="W58" s="8" t="n"/>
+      <c r="V58" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="X58" s="8" t="n"/>
       <c r="Y58" s="8" t="n"/>
       <c r="Z58" s="8" t="n"/>
+      <c r="AA58" s="8" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="7" t="n">
@@ -4039,41 +4428,48 @@
       </c>
       <c r="D59" s="8" t="n"/>
       <c r="E59" s="8" t="n"/>
-      <c r="F59" s="8" t="n">
+      <c r="F59" s="8" t="inlineStr">
+        <is>
+          <t>AdaptiveAvgPool2d: 1-2</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="n"/>
+      <c r="H59" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-55</t>
+        </is>
+      </c>
+      <c r="I59" s="8" t="n"/>
+      <c r="J59" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="G59" s="8" t="n"/>
-      <c r="H59" s="8" t="n"/>
-      <c r="I59" s="8" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J59" s="8" t="n"/>
       <c r="K59" s="8" t="n"/>
       <c r="L59" s="8" t="n"/>
-      <c r="M59" s="8" t="n"/>
+      <c r="M59" s="8" t="n">
+        <v>4096</v>
+      </c>
       <c r="N59" s="8" t="n"/>
       <c r="O59" s="8" t="n"/>
       <c r="P59" s="8" t="n"/>
       <c r="Q59" s="8" t="n"/>
-      <c r="R59" s="8" t="n">
+      <c r="R59" s="8" t="n"/>
+      <c r="S59" s="8" t="n"/>
+      <c r="T59" s="8" t="n"/>
+      <c r="U59" s="8" t="n"/>
+      <c r="V59" s="8" t="n">
         <v>25088</v>
       </c>
-      <c r="S59" s="8" t="n">
+      <c r="W59" s="8" t="n">
         <v>4096</v>
       </c>
-      <c r="T59" s="8" t="n">
+      <c r="X59" s="8" t="n">
         <v>102764544</v>
       </c>
-      <c r="U59" s="8" t="n">
+      <c r="Y59" s="8" t="n">
         <v>102760448</v>
       </c>
-      <c r="V59" s="8" t="n"/>
-      <c r="W59" s="8" t="n"/>
-      <c r="X59" s="8" t="n">
-        <v>102760448</v>
-      </c>
-      <c r="Y59" s="8" t="n"/>
       <c r="Z59" s="8" t="n"/>
+      <c r="AA59" s="8" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="7" t="n">
@@ -4082,42 +4478,49 @@
       <c r="B60" s="8" t="n"/>
       <c r="C60" s="8" t="inlineStr">
         <is>
-          <t>ReLU: 2-55</t>
+          <t>ReLU(inplace): 2-55</t>
         </is>
       </c>
       <c r="D60" s="8" t="n"/>
       <c r="E60" s="8" t="n"/>
-      <c r="F60" s="8" t="n">
+      <c r="F60" s="8" t="inlineStr">
+        <is>
+          <t>Linear: 2-54</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="n"/>
+      <c r="H60" s="8" t="inlineStr">
+        <is>
+          <t>Dropout: 2-56</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="n"/>
+      <c r="J60" s="8" t="n">
         <v>4096</v>
       </c>
-      <c r="G60" s="8" t="n"/>
-      <c r="H60" s="8" t="n"/>
-      <c r="I60" s="8" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J60" s="8" t="n"/>
       <c r="K60" s="8" t="n"/>
       <c r="L60" s="8" t="n"/>
-      <c r="M60" s="8" t="n"/>
+      <c r="M60" s="8" t="n">
+        <v>4096</v>
+      </c>
       <c r="N60" s="8" t="n"/>
       <c r="O60" s="8" t="n"/>
       <c r="P60" s="8" t="n"/>
       <c r="Q60" s="8" t="n"/>
-      <c r="R60" s="8" t="n">
-        <v>4096</v>
-      </c>
-      <c r="S60" s="8" t="n">
-        <v>4096</v>
-      </c>
+      <c r="R60" s="8" t="n"/>
+      <c r="S60" s="8" t="n"/>
       <c r="T60" s="8" t="n"/>
       <c r="U60" s="8" t="n"/>
-      <c r="V60" s="8" t="n"/>
+      <c r="V60" s="8" t="n">
+        <v>4096</v>
+      </c>
       <c r="W60" s="8" t="n">
         <v>4096</v>
       </c>
       <c r="X60" s="8" t="n"/>
       <c r="Y60" s="8" t="n"/>
-      <c r="Z60" s="8" t="n">
+      <c r="Z60" s="8" t="n"/>
+      <c r="AA60" s="8" t="n">
         <v>4096</v>
       </c>
     </row>
@@ -4133,35 +4536,44 @@
       </c>
       <c r="D61" s="8" t="n"/>
       <c r="E61" s="8" t="n"/>
-      <c r="F61" s="8" t="n">
+      <c r="F61" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-55</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="n"/>
+      <c r="H61" s="8" t="inlineStr">
+        <is>
+          <t>Linear: 2-57</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="n"/>
+      <c r="J61" s="8" t="n">
         <v>4096</v>
       </c>
-      <c r="G61" s="8" t="n"/>
-      <c r="H61" s="8" t="n"/>
-      <c r="I61" s="8" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J61" s="8" t="n"/>
       <c r="K61" s="8" t="n"/>
       <c r="L61" s="8" t="n"/>
-      <c r="M61" s="8" t="n"/>
+      <c r="M61" s="8" t="n">
+        <v>4096</v>
+      </c>
       <c r="N61" s="8" t="n"/>
       <c r="O61" s="8" t="n"/>
       <c r="P61" s="8" t="n"/>
       <c r="Q61" s="8" t="n"/>
-      <c r="R61" s="8" t="n">
-        <v>4096</v>
-      </c>
-      <c r="S61" s="8" t="n">
-        <v>4096</v>
-      </c>
+      <c r="R61" s="8" t="n"/>
+      <c r="S61" s="8" t="n"/>
       <c r="T61" s="8" t="n"/>
       <c r="U61" s="8" t="n"/>
-      <c r="V61" s="8" t="n"/>
-      <c r="W61" s="8" t="n"/>
+      <c r="V61" s="8" t="n">
+        <v>4096</v>
+      </c>
+      <c r="W61" s="8" t="n">
+        <v>4096</v>
+      </c>
       <c r="X61" s="8" t="n"/>
       <c r="Y61" s="8" t="n"/>
       <c r="Z61" s="8" t="n"/>
+      <c r="AA61" s="8" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="7" t="n">
@@ -4175,41 +4587,48 @@
       </c>
       <c r="D62" s="8" t="n"/>
       <c r="E62" s="8" t="n"/>
-      <c r="F62" s="8" t="n">
+      <c r="F62" s="8" t="inlineStr">
+        <is>
+          <t>Dropout: 2-56</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="n"/>
+      <c r="H62" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-58</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="n"/>
+      <c r="J62" s="8" t="n">
         <v>4096</v>
       </c>
-      <c r="G62" s="8" t="n"/>
-      <c r="H62" s="8" t="n"/>
-      <c r="I62" s="8" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J62" s="8" t="n"/>
       <c r="K62" s="8" t="n"/>
       <c r="L62" s="8" t="n"/>
-      <c r="M62" s="8" t="n"/>
+      <c r="M62" s="8" t="n">
+        <v>4096</v>
+      </c>
       <c r="N62" s="8" t="n"/>
       <c r="O62" s="8" t="n"/>
       <c r="P62" s="8" t="n"/>
       <c r="Q62" s="8" t="n"/>
-      <c r="R62" s="8" t="n">
+      <c r="R62" s="8" t="n"/>
+      <c r="S62" s="8" t="n"/>
+      <c r="T62" s="8" t="n"/>
+      <c r="U62" s="8" t="n"/>
+      <c r="V62" s="8" t="n">
         <v>4096</v>
       </c>
-      <c r="S62" s="8" t="n">
+      <c r="W62" s="8" t="n">
         <v>4096</v>
       </c>
-      <c r="T62" s="8" t="n">
+      <c r="X62" s="8" t="n">
         <v>16781312</v>
       </c>
-      <c r="U62" s="8" t="n">
+      <c r="Y62" s="8" t="n">
         <v>16777216</v>
       </c>
-      <c r="V62" s="8" t="n"/>
-      <c r="W62" s="8" t="n"/>
-      <c r="X62" s="8" t="n">
-        <v>16777216</v>
-      </c>
-      <c r="Y62" s="8" t="n"/>
       <c r="Z62" s="8" t="n"/>
+      <c r="AA62" s="8" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="7" t="n">
@@ -4218,42 +4637,49 @@
       <c r="B63" s="8" t="n"/>
       <c r="C63" s="8" t="inlineStr">
         <is>
-          <t>ReLU: 2-58</t>
+          <t>ReLU(inplace): 2-58</t>
         </is>
       </c>
       <c r="D63" s="8" t="n"/>
       <c r="E63" s="8" t="n"/>
-      <c r="F63" s="8" t="n">
+      <c r="F63" s="8" t="inlineStr">
+        <is>
+          <t>Linear: 2-57</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="n"/>
+      <c r="H63" s="8" t="inlineStr">
+        <is>
+          <t>Dropout: 2-59</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="n"/>
+      <c r="J63" s="8" t="n">
         <v>4096</v>
       </c>
-      <c r="G63" s="8" t="n"/>
-      <c r="H63" s="8" t="n"/>
-      <c r="I63" s="8" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J63" s="8" t="n"/>
       <c r="K63" s="8" t="n"/>
       <c r="L63" s="8" t="n"/>
-      <c r="M63" s="8" t="n"/>
+      <c r="M63" s="8" t="n">
+        <v>4096</v>
+      </c>
       <c r="N63" s="8" t="n"/>
       <c r="O63" s="8" t="n"/>
       <c r="P63" s="8" t="n"/>
       <c r="Q63" s="8" t="n"/>
-      <c r="R63" s="8" t="n">
-        <v>4096</v>
-      </c>
-      <c r="S63" s="8" t="n">
-        <v>4096</v>
-      </c>
+      <c r="R63" s="8" t="n"/>
+      <c r="S63" s="8" t="n"/>
       <c r="T63" s="8" t="n"/>
       <c r="U63" s="8" t="n"/>
-      <c r="V63" s="8" t="n"/>
+      <c r="V63" s="8" t="n">
+        <v>4096</v>
+      </c>
       <c r="W63" s="8" t="n">
         <v>4096</v>
       </c>
       <c r="X63" s="8" t="n"/>
       <c r="Y63" s="8" t="n"/>
-      <c r="Z63" s="8" t="n">
+      <c r="Z63" s="8" t="n"/>
+      <c r="AA63" s="8" t="n">
         <v>4096</v>
       </c>
     </row>
@@ -4269,35 +4695,44 @@
       </c>
       <c r="D64" s="8" t="n"/>
       <c r="E64" s="8" t="n"/>
-      <c r="F64" s="8" t="n">
+      <c r="F64" s="8" t="inlineStr">
+        <is>
+          <t>ReLU(inplace): 2-58</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="n"/>
+      <c r="H64" s="8" t="inlineStr">
+        <is>
+          <t>Linear: 2-60</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="n"/>
+      <c r="J64" s="8" t="n">
         <v>4096</v>
       </c>
-      <c r="G64" s="8" t="n"/>
-      <c r="H64" s="8" t="n"/>
-      <c r="I64" s="8" t="n">
-        <v>4096</v>
-      </c>
-      <c r="J64" s="8" t="n"/>
       <c r="K64" s="8" t="n"/>
       <c r="L64" s="8" t="n"/>
-      <c r="M64" s="8" t="n"/>
+      <c r="M64" s="8" t="n">
+        <v>4096</v>
+      </c>
       <c r="N64" s="8" t="n"/>
       <c r="O64" s="8" t="n"/>
       <c r="P64" s="8" t="n"/>
       <c r="Q64" s="8" t="n"/>
-      <c r="R64" s="8" t="n">
-        <v>4096</v>
-      </c>
-      <c r="S64" s="8" t="n">
-        <v>4096</v>
-      </c>
+      <c r="R64" s="8" t="n"/>
+      <c r="S64" s="8" t="n"/>
       <c r="T64" s="8" t="n"/>
       <c r="U64" s="8" t="n"/>
-      <c r="V64" s="8" t="n"/>
-      <c r="W64" s="8" t="n"/>
+      <c r="V64" s="8" t="n">
+        <v>4096</v>
+      </c>
+      <c r="W64" s="8" t="n">
+        <v>4096</v>
+      </c>
       <c r="X64" s="8" t="n"/>
       <c r="Y64" s="8" t="n"/>
       <c r="Z64" s="8" t="n"/>
+      <c r="AA64" s="8" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="7" t="n">
@@ -4311,72 +4746,70 @@
       </c>
       <c r="D65" s="8" t="n"/>
       <c r="E65" s="8" t="n"/>
-      <c r="F65" s="8" t="n">
-        <v>4096</v>
+      <c r="F65" s="8" t="inlineStr">
+        <is>
+          <t>Dropout: 2-59</t>
+        </is>
       </c>
       <c r="G65" s="8" t="n"/>
       <c r="H65" s="8" t="n"/>
-      <c r="I65" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J65" s="8" t="n"/>
+      <c r="I65" s="8" t="n"/>
+      <c r="J65" s="8" t="n">
+        <v>4096</v>
+      </c>
       <c r="K65" s="8" t="n"/>
       <c r="L65" s="8" t="n"/>
-      <c r="M65" s="8" t="n"/>
+      <c r="M65" s="8" t="n">
+        <v>1000</v>
+      </c>
       <c r="N65" s="8" t="n"/>
       <c r="O65" s="8" t="n"/>
       <c r="P65" s="8" t="n"/>
       <c r="Q65" s="8" t="n"/>
-      <c r="R65" s="8" t="n">
+      <c r="R65" s="8" t="n"/>
+      <c r="S65" s="8" t="n"/>
+      <c r="T65" s="8" t="n"/>
+      <c r="U65" s="8" t="n"/>
+      <c r="V65" s="8" t="n">
         <v>4096</v>
       </c>
-      <c r="S65" s="8" t="n">
+      <c r="W65" s="8" t="n">
         <v>1000</v>
       </c>
-      <c r="T65" s="8" t="n">
+      <c r="X65" s="8" t="n">
         <v>4097000</v>
       </c>
-      <c r="U65" s="8" t="n">
+      <c r="Y65" s="8" t="n">
         <v>4096000</v>
       </c>
-      <c r="V65" s="8" t="n"/>
-      <c r="W65" s="8" t="n"/>
-      <c r="X65" s="8" t="n">
-        <v>4096000</v>
-      </c>
-      <c r="Y65" s="8" t="n"/>
       <c r="Z65" s="8" t="n"/>
+      <c r="AA65" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
   </mergeCells>
-  <conditionalFormatting sqref="S1:S65">
+  <conditionalFormatting sqref="W1:W65">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>3211264</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T65">
+  <conditionalFormatting sqref="X1:X65">
     <cfRule type="cellIs" priority="2" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>102764544</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U65">
+  <conditionalFormatting sqref="Y1:Y65">
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="2" stopIfTrue="1">
       <formula>1852899328</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X65">
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="3" stopIfTrue="1">
-      <formula>1849688064</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4389,7 +4822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4438,16 +4871,6 @@
         <v>19.64691456</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Total Backward GEMM (G_ops):</t>
-        </is>
-      </c>
-      <c r="B5" s="8" t="n">
-        <v>19.632062464</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
